--- a/02. 요구사항 정의서.xlsx
+++ b/02. 요구사항 정의서.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="요구사항 정의서" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="시트1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="183">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -95,9 +96,6 @@
 2. 문자 (SNS) 인증
     - 사용자가 입력한 휴대전화 번호로 인증번호(예: 6자리) 전송
     - 사용자가 해당 번호를 입력하면 일치 여부 검증</t>
-  </si>
-  <si>
-    <t>마이 페이지작성</t>
   </si>
   <si>
     <t>USER_004</t>
@@ -121,7 +119,7 @@
     <t>USER_005</t>
   </si>
   <si>
-    <t xml:space="preserve"> 가입된 사용자가 자신의 개인정보를 수정할 수 있도록 하고, 보안과 데이터 무결성을 보장
+    <t xml:space="preserve">개요:  가입된 사용자가 자신의 개인정보를 수정할 수 있도록 하고, 보안과 데이터 무결성을 보장
 1. 본인인증 (재로그인)
   - 개인정보 수정 전, 로그인 팝업(비밀번호 재입력)으로 본인 확인
   - 성공 시에만 서버로부터 유효한 expire를 얻음
@@ -150,7 +148,7 @@
     <t>USER_006</t>
   </si>
   <si>
-    <t>가입된 사용자가 자신의 계정을 영구 삭제(hard delete)할 수 있도록 함
+    <t>개요: 가입된 사용자가 자신의 계정을 영구 삭제(hard delete)할 수 있도록 함
 1. 회원탈퇴 버튼 UI
     - 마이페이지 또는 설정 페이지에 회원탈퇴 버튼 배치
 2. 본인 인증 (재로그인)
@@ -184,7 +182,13 @@
     <t>CM_001</t>
   </si>
   <si>
-    <t>사용자는 작물 등록 시 품목명, 품종, 재배 시작일, 위치(위도/경도), 면적을 입력할 수 있어야 한다.</t>
+    <t>사용자는 작물 등록을 위해 다음 정보를 입력해야 한다.
+    품목명: 생물의 대분류 이름 (예: 토마토). 공백 제외 최소 1자 이상 필수.
+    품종: 세부 품종 이름 (예: 대추방울토마토). 품목명과 조합 시 유일해야 한다.
+    재배 시작일: 오늘 이전 또는 오늘 날짜만 가능. 미래 날짜는 허용되지 않는다.
+    위치 정보: 위도(-9090), 경도(-180180) 범위 내의 GPS 좌표. 지도 기반 입력도 허용.
+    재배 면적: m² 단위 정수. 최소 1 이상, 음수 및 소수점 입력 불가.
+    등록 시 동일 사용자의 동일 품종 작물은 중복 등록 불가 제약을 가질 수 있다 (선택적 비즈니스 룰).</t>
   </si>
   <si>
     <t>양승우</t>
@@ -196,7 +200,9 @@
     <t>CM_002</t>
   </si>
   <si>
-    <t>시스템은 등록된 작물 정보를 작물 ID 기준으로 고유하게 식별할 수 있어야 한다.</t>
+    <t xml:space="preserve">시스템은 작물 등록 시 고유 식별자 crop_id를 자동으로 생성해야 한다.
+    crop_id는 내부적으로 UUID 또는 ‘CROP_날짜_일련번호’ 형식으로 구성될 수 있으며, 시스템 내 전역에서 유일해야 한다.
+    해당 식별자는 이후 생육 데이터, 주문 정보, 예측 모델 입력 등에 모두 연결되므로 외래키(FK) 기준이 된다.  </t>
   </si>
   <si>
     <t>작물 정보 수정 및 삭제</t>
@@ -205,7 +211,15 @@
     <t>CM_003</t>
   </si>
   <si>
-    <t>사용자는 작물 정보를 수정 및 삭제할 수 있어야 한다. 단, 삭제는 연관된 주문/생육 데이터가 없을 경우에만 가능하다.</t>
+    <t>주체: 사용자
+    사용자는 자신이 등록한 작물의 정보를 수정할 수 있어야 하며, 조건에 따라 삭제도 가능해야 한다.
+    수정 가능한 필드는 품종명, 재배 시작일, 면적이며, 작물 ID나 위치 정보는 수정할 수 없다 (위치 변경은 재등록 유도).
+주체: 시스템
+    삭제 요청이 들어오면 다음 두 조건을 만족하는지 자동으로 검증해야 한다:
+    해당 작물과 연결된 생육 데이터가 존재하지 않을 것
+    해당 작물과 연결된 주문 이력이 존재하지 않을 것
+    위 조건 중 하나라도 위반 시, 시스템은 삭제를 거부하고 명확한 사유를 사용자에게 전달한다.
+    (예: “이 작물은 등록된 생육 데이터가 있어 삭제할 수 없습니다.”)</t>
   </si>
   <si>
     <t>작물 재배 상태 표시</t>
@@ -214,7 +228,11 @@
     <t>CM_004</t>
   </si>
   <si>
-    <t>시스템은 작물별 재배 상태(진행 중 / 종료 / 폐기 등)를 표시할 수 있어야 한다.</t>
+    <t>시스템은 각 작물의 상태를 실시간으로 관리하고, 다음 중 하나의 상태값으로 표시해야 한다:
+    재배중: 작물 등록 시 초기값이며, 현재 생육 중인 상태.
+    종료: 예측 수확일 경과 또는 사용자가 ‘수확 완료’로 상태를 변경한 경우 자동 전환됨.
+    폐기: 사용자에 의해 명시적으로 ‘폐기’로 전환된 경우. 건강도 저하/병해충 발생 등의 판단 기준이 될 수 있음.
+(상태 변경은 생육 데이터 및 예측 결과와 연동되며, 시스템이 자동으로 조정할 수 있어야 한다.)</t>
   </si>
   <si>
     <t>생육 연동 (Growth Data Integration)</t>
@@ -226,7 +244,13 @@
     <t>GI_001</t>
   </si>
   <si>
-    <t>시스템은 작물 위치를 기반으로 외부 기상 API를 호출하여 데이터(온도, 습도 등)를 수집해야 한다.</t>
+    <t>시스템은 작물 등록 시 입력된 위치(위도/경도)를 기반으로 외부 기상 API를 주기적으로 호출해야 한다.
+수집 항목은 다음을 포함해야 하며, 형식 오류나 누락이 없도록 정규화되어야 한다:
+    - 일일 평균 기온 (°C, 소수점 한 자리까지)
+    - 일 최고/최저 기온
+    - 평균 습도 (%)
+    - 일조 시간 또는 일사량 (단위 시간 기준)
+외부 API 호출 시 제공된 응답 포맷(JSON/XML 등)을 내부 표준 형식으로 파싱 후 저장해야 한다.</t>
   </si>
   <si>
     <t>생육 데이터 저장</t>
@@ -235,7 +259,13 @@
     <t>GI_002</t>
   </si>
   <si>
-    <t>수집된 기상/생육 데이터는 작물별로 일자 단위로 저장되어야 한다.</t>
+    <t>기상 API를 통해 수집된 데이터는 반드시 작물 ID 기준으로 일자 단위로 저장되어야 한다.
+동일 작물의 동일 날짜에 대해 중복 저장은 허용되지 않는다. 이미 존재하는 경우 덮어쓰기 또는 무시 정책 선택.
+저장 항목은 다음을 포함해야 한다:
+    - 수집 일자 (YYYY-MM-DD, 고유 키)
+    - 작물 ID (외래키)
+    - 수집된 각 기상 항목
+    - 저장 시각 (ISO Timestamp)</t>
   </si>
   <si>
     <t>데이터 수집 주기 설정</t>
@@ -244,7 +274,13 @@
     <t>GI_003</t>
   </si>
   <si>
-    <t>생육 데이터 수집은 기본적으로 1일 1회이며, 사용자 설정에 따라 조정 가능해야 한다.</t>
+    <t>주체: 사용자
+사용자는 관리자 페이지 또는 설정 메뉴에서 생육 데이터 수집 주기를 지정할 수 있어야 한다.
+    - 기본값: 1일 1회 (00:00 ~ 23:59 중 수집 시간 고정)
+    - 선택 가능: 6시간/12시간 단위 수집
+주체: 시스템
+시스템은 사용자가 설정한 주기에 따라 API 호출을 예약 또는 주기적으로 실행해야 한다.
+수집 스케줄은 작물별로 관리되며, 장애 또는 실패 시 보완 로직이 포함되어야 한다.</t>
   </si>
   <si>
     <t>API 실패 처리</t>
@@ -253,7 +289,13 @@
     <t>GI_004</t>
   </si>
   <si>
-    <t>API 호출 실패 시 재시도 정책을 적용하고, 실패 로그를 기록해야 한다.</t>
+    <t>시스템은 API 호출이 실패한 경우 다음과 같이 대응해야 한다:
+    동일 요청을 최대 3회까지 자동 재시도 (간격 10분 또는 사용자 설정 가능)
+    3회 실패 시 다음 정보를 포함한 실패 로그를 기록해야 한다:
+        - 실패 일시
+        - crop_id
+        - 실패 사유 (HTTP 상태 코드, 타임아웃 등)
+관리자에게 자동 경고 또는 알림 메시지를 전송한다.</t>
   </si>
   <si>
     <t>생육 분석 (Growth Analytics)</t>
@@ -265,7 +307,12 @@
     <t>GA_001</t>
   </si>
   <si>
-    <t>시스템은 수집된 생육 데이터를 기반으로 작물의 생육 단계를 판단해야 한다.</t>
+    <t>시스템은 수집된 생육 데이터를 기반으로 작물의 생육 단계를 판단해야 한다.
+생육 단계는 품종별 기준 곡선(일수, 기온, 일조량 등)에 따라 다음과 같이 구분된다:
+    - 발아기: 파종 후 7일 이내, 일정 온도 유지 필요
+    - 생장기: 일정 누적 일조량 도달 후
+    - 수확기: 생육일의 80% 이상 진행 시점
+생육 단계는 매일 갱신되며, 분석 결과는 crop_id 기준으로 저장되어야 한다.</t>
   </si>
   <si>
     <t>생육 곡선/AI 기반 분석</t>
@@ -274,7 +321,12 @@
     <t>GA_002</t>
   </si>
   <si>
-    <t>생육 단계 분석은 품종별 기준 생육 곡선 또는 AI 모델을 통해 수행되어야 한다.</t>
+    <t>시스템은 작물별 생육 곡선을 기반으로 실제 수집된 데이터를 비교 분석한다.
+품종별 생장 곡선은 사전 등록된 기준 데이터를 바탕으로 한다.
+AI 모델(Logistic, Linear 등)은 다음 항목을 입력값으로 사용한다:
+    - 재배 시작일 기준 경과일
+    - 누적 일조량, 평균 기온, 습도
+분석 결과는 생장률(%) 또는 생육 단계로 출력되며, 예측 수확일 계산에 활용된다.</t>
   </si>
   <si>
     <t>건강도 지수 산출</t>
@@ -283,7 +335,12 @@
     <t>GA_003</t>
   </si>
   <si>
-    <t>시스템은 생육 데이터를 기반으로 건강도를 수치화하고, 일정 기준 이상/이하 시 경고 알림을 발생시켜야 한다.</t>
+    <t>시스템은 생육 데이터를 기반으로 건강도를 0~100점의 정량 지표로 산출한다.
+산출 공식은 다음 항목을 포함할 수 있다:
+    - 엽록소 농도 (SPAD 값)
+    - 광합성 효율 지수
+    - 병해충 감지 여부 (IoT 센서, 이미지 분석 포함)
+기준값 미달 시 사용자에게 자동 경고 메시지를 전송해야 하며, 시스템 상태도 "주의/위험"으로 표시된다.</t>
   </si>
   <si>
     <t>예상 수확일 계산</t>
@@ -292,7 +349,12 @@
     <t>GA_004</t>
   </si>
   <si>
-    <t>작물의 평균 생육 기간과 환경 데이터를 조합하여 예상 수확일을 계산해야 한다.</t>
+    <t>시스템은 다음 데이터를 기반으로 예상 수확일을 계산한다:
+    - 작물 평균 생육 기간 (예: 90일)
+    - 현재 누적 생육 일수
+    - 기상 조건에 따른 보정치 (폭염/저온, 강우량 등)
+    - 건강도에 따른 지연 요소
+예상 수확일은 crop_id 기준으로 일자 형태로 저장되고, 매일 재계산된다.</t>
   </si>
   <si>
     <t>생육 분석 결과 시각화</t>
@@ -301,7 +363,12 @@
     <t>GA_005</t>
   </si>
   <si>
-    <t>분석 결과는 그래프/지표 형태로 대시보드에 표시되어야 한다.</t>
+    <t>분석 결과는 관리자 및 생산자가 열람할 수 있도록 시각적으로 표시되어야 한다.
+시각화 항목에는 다음이 포함된다:
+    - 생장률 그래프 (X축: 날짜, Y축: 생장률 %)
+    - 건강도 변화 추이 (선 또는 색상 구간 표시)
+    - 수확 예정일 및 현재 진행률 (게이지 또는 라벨)
+    - 경고 발생 시 색상 변화 또는 아이콘 표시 (예: 빨간색 경고 삼각형)</t>
   </si>
   <si>
     <t>알람 기능 (Notification)</t>
@@ -313,7 +380,13 @@
     <t>NF_001</t>
   </si>
   <si>
-    <t>시스템은 생육 이상(예: 온도/습도 급변, 병해 가능성 등)을 탐지하면 즉시 생산자에게 알림을 전송해야 한다.</t>
+    <t>시스템은 생육 이상(예: 온도/습도 급변, 병해 가능성 등)을 탐지하면 즉시 생산자에게 알림을 전송해야 한다.
+    - 이상 탐지 조건 정의 (예: 온도 ±5℃ 이상 급변, 습도 급감 등)
+    - 실시간 생육 데이터 수집 (센서 또는 API 연동)
+    - 이상 조건 감지 시 이벤트 트리거 발생
+    - 트리거 발생 시 즉시 알림 큐에 등록
+    - 사용자별 설정된 채널(Web Push, Email, SMS)로 전송
+    - 알림 이력 기록 (NF_006와 연동)</t>
   </si>
   <si>
     <t>수확 예정 알림</t>
@@ -322,7 +395,12 @@
     <t>NF_002</t>
   </si>
   <si>
-    <t>시스템은 작물의 예상 수확일 5일 전에 생산자에게 ‘출하 준비 알림’을 제공해야 한다.</t>
+    <t>시스템은 작물의 예상 수확일 5일 전에 생산자에게 ‘출하 준비 알림’을 제공해야 한다.
+    - 작물 등록 시 예상 수확일 필드 저장
+    - 백그라운드에서 매일 1회 수확일 - 5일 조건 조회
+    - 조건에 부합할 경우, 알림 전송 대기 큐에 등록
+    - 해당 작물 소유 생산자에게 알림 발송
+    - 알림 이력 기록</t>
   </si>
   <si>
     <t>주문 요청 알림</t>
@@ -331,7 +409,13 @@
     <t>NF_003</t>
   </si>
   <si>
-    <t>주문이 생성되면 생산자는 ‘주문 요청 알림’을 수신해야 한다.</t>
+    <t xml:space="preserve">주문이 생성되면 생산자는 ‘주문 요청 알림’을 수신해야 한다.
+   - 주문 생성 API에서 주문 등록 후 트리거 생성
+    - 주문 대상 작물의 생산자 ID 확인
+    - 생산자의 알림 채널에 따라 메시지 전송
+    - 알림 메시지: "새로운 주문이 도착했습니다. 주문번호: #12345"
+    - 알림 이력 기록
+</t>
   </si>
   <si>
     <t>주문 상태 변경 알림</t>
@@ -340,7 +424,12 @@
     <t>NF_004</t>
   </si>
   <si>
-    <t>주문이 수락되거나 거절될 경우, 구매자는 상태 변경 알림을 받아야 한다.</t>
+    <t>주문이 수락되거나 거절될 경우, 구매자는 상태 변경 알림을 받아야 한다.
+    - 주문 상태 변경 API 또는 어드민 페이지 이벤트 감지
+    - 주문자의 사용자 ID 추적
+    - 상태값(ACCEPTED, REJECTED)에 따른 메시지 분기
+    - 구매자 설정에 따른 채널로 알림 전송
+    - 알림 이력 기록</t>
   </si>
   <si>
     <t>재고 부족 경고 알림</t>
@@ -349,7 +438,13 @@
     <t>NF_005</t>
   </si>
   <si>
-    <t>주문량이 예측 수확량을 초과할 경우, 시스템은 ‘재고 부족 알림’을 관리자와 생산자에게 발송해야 한다.</t>
+    <t>주문량이 예측 수확량을 초과할 경우, 시스템은 ‘재고 부족 알림’을 관리자와 생산자에게 발송해야 한다.
+주문 시점 또는 주기적 검사 시:
+    - 총주문수량 &gt; 예측수확량 여부 확인
+조건 만족 시 알림 큐에 등록
+알림 대상: 해당 작물의 생산자 + 시스템 관리자
+메시지 예시: "수박의 주문량이 예상 수확량을 초과했습니다."
+알림 이력 기록</t>
   </si>
   <si>
     <t>알림 이력 저장</t>
@@ -358,7 +453,12 @@
     <t>NF_006</t>
   </si>
   <si>
-    <t>시스템은 알림 이력을 DB에 저장하고, 사용자가 확인할 수 있는 UI를 제공해야 한다.</t>
+    <t>notification_history 테이블 정의:
+    - id, user_id, title, content, type, created_at, read_at, channel, status
+알림 전송 직후 이력 저장 (성공/실패 포함)
+알림 UI에서 목록 조회 API 제공 (GET /notifications)
+읽음 처리 API (PATCH /notifications/{id}/read)
+Web UI 구성: 목록, 필터링(안읽은/전체), 시간순 정렬 등</t>
   </si>
   <si>
     <t>알림 채널 설정</t>
@@ -367,7 +467,15 @@
     <t>NF_007</t>
   </si>
   <si>
-    <t>알림 수단은 Web Push, Email, SMS 중 선택 가능해야 하며, 사용자 설정에 따라 구분되어야 한다.</t>
+    <t>알림 수단은 Web Push, Email, SMS 중 선택 가능해야 하며, 사용자 설정에 따라 구분되어야 한다.
+사용자 프로필에 알림 설정 저장:
+    - preferred_channels: 배열 형태로 저장 (예: ["email", "web"])
+알림 전송 전 채널 확인
+채널별 전송 핸들러 구현:
+    - Web Push: PWA 기반 브라우저 알림
+    - Email: SMTP 또는 외부 API(SendGrid 등)
+    - SMS: 외부 API(Kakao Bizmessage, Twilio 등)
+사용자 설정 UI에서 채널 토글 선택 가능하게 구현</t>
   </si>
   <si>
     <t>중복 알림 방지</t>
@@ -376,7 +484,13 @@
     <t>NF_008</t>
   </si>
   <si>
-    <t>동일 이벤트에 대해 반복 알림을 방지하기 위해 debounce 정책을 적용해야 한다.</t>
+    <t>동일 이벤트에 대해 반복 알림을 방지하기 위해 debounce 정책을 적용해야 한다.
+Redis 또는 메모리 캐시 기반 debounce 키 저장
+    - key: alarm:{user_id}:{event_type}
+    - TTL: 10분 등 (정책에 따라 조정)
+알림 전송 전 debounce key 존재 여부 확인
+존재하면 전송 생략, 없으면 전송 및 TTL 저장
+시스템 로그 또는 이력에 debounce 생략 여부 기록</t>
   </si>
   <si>
     <t>재고 관리(Inventory)</t>
@@ -389,7 +503,12 @@
     <t>INV_001</t>
   </si>
   <si>
-    <t>시스템이 예측 수확일에 따라 재고 수량 업데이트 할 수 있다. 입력값은 음수 불가능하다.</t>
+    <t>시스템이 예측 수확일에 따라 재고 수량 업데이트
+수확일이 되면 해당 작물의 재고 자동 갱신
+1. 입력 항목
+- 작물 ID
+- 예측 수확일 : 수확일은 현재일 이후
+- 수확 예상 수량 : 0 이상 정수, 갖고 있는 수량에서 증감</t>
   </si>
   <si>
     <t>유현경</t>
@@ -402,7 +521,15 @@
     <t>INV_002</t>
   </si>
   <si>
-    <t>생산자는 잘못된 재고 직접 수정 가능하다. 입력란에 재고 수량 입력 후 저장 버튼으로 재고 업데이트, 수정 권한은 생산자만 가능하다.</t>
+    <t>생산자는 잘못된 재고 직접 수정 가능
+1. 입력 가능 값
+- 새로운 예측 수확일 : 현재일 이후
+- 재고 수량 : 0 이상 정수
+2. 권한
+- 수정 권한은 생산자만
+3. 처리
+- 수정 가능한 입력 필드
+- 저장 버튼 클릭 시 재고 업데이트</t>
   </si>
   <si>
     <t>현재 재고 수량 
@@ -412,7 +539,13 @@
     <t>INV_003</t>
   </si>
   <si>
-    <t>모든 사용자는 등록된 모든 재고에 대해 검색/정렬/필터 기능을 사용할 수 있다. 조건에 맞는 데이터 조회 가능하다.</t>
+    <t>모든 사용자는 등록된 모든 재고에 대해 검색/정렬/필터 기능을 사용할 수 있다. 조건에 맞는 데이터 조회 가능하다.
+1. 입력
+- 검색 키워드 : 작물명, ID
+- 정렬 기준 : 수량, 수확일
+- 필터 조건 : 품종, 건강 상태
+2. 권한
+모든 사용자 : 생산자, 관리자</t>
   </si>
   <si>
     <t>재고 삭제 기능</t>
@@ -421,7 +554,13 @@
     <t>INV_004</t>
   </si>
   <si>
-    <t>생산자 혹은 관리자 잘못된 데이터 삭제한다. 삭제 권한은 생산자 또는 관리자? 생산자는 관리자에게 요청하여 삭제?</t>
+    <t>생산자 혹은 관리자 잘못된 데이터 삭제한다. 생산자는 관리자에게 요청하여 삭제
+1. 입력
+- 삭제 재고 ID 혹은 작물명
+2. 처리
+- 관리자에게 삭제 요청 -&gt; 관리자가 승인 후 삭제
+- 관리자 직접 삭제 가능
+3. 삭제 로그 남겨서 잘못 삭제했을 경우 복구 가능하도록 함</t>
   </si>
   <si>
     <t>출고 처리 시 
@@ -431,7 +570,11 @@
     <t>INV_005</t>
   </si>
   <si>
-    <t>상품이 출고 되면 출고 수량만큼 해당 품목의 재고 수량을 자동으로 차감 처리한다. 재고 차감은 트랜잭션 처리해야 한다.</t>
+    <t>1. 처리
+- 출고 수량만큼 해당 재고에서 차감
+- 트랜잭션 처리로 오류 시 롤백
+2. 
+재고 수량보다 많은 출고 불가능 (검증 필요)</t>
   </si>
   <si>
     <t>주문 관리 (Order)</t>
@@ -443,7 +586,9 @@
     <t>ORD_001</t>
   </si>
   <si>
-    <t>생산자는 판매 가능한 작물(품목명, 품종, 재고량, 단가 등)을 등록할 수 있어야 한다.</t>
+    <t>생산자는 판매 가능한 작물을 등록할 수 있어야 한다.-등록된 품목은 구매자 주문화면에 노출됨
+입력항목 : 품목명(nut null, VARCHAR ),재고량(nut null,INT,0이상), 단가(nut null,숫자,0이상, 단위 : 원,개당/Kg당,묶음당가격)
+로직 : 유효성 검증 통과 시 DB 저장</t>
   </si>
   <si>
     <t>이시욱</t>
@@ -455,7 +600,9 @@
     <t>ORD_002</t>
   </si>
   <si>
-    <t>주문 시 구매자는 수량, 수령 정보를 입력할 수 있어야 한다.</t>
+    <t>구매자가 주문 시 필요한 정보를 입력하여 주문을 생성할 수 있음.
+입력항목 : 수량(nut null,INT,1이상), 수령인 주소(nut null, VARCHAR), 수령인 성명(nut null, VARCHAR), 수령인 전화번호(11자리), 요청사항
+로직 : 검증 통과 시 주문 정보 DB 저장</t>
   </si>
   <si>
     <t>자동주문 수락/거절</t>
@@ -464,7 +611,14 @@
     <t>ORD_003</t>
   </si>
   <si>
-    <t>시스템은 재고량에 따라 주문요청을 수락또는 거절을 자동으로할수 있어야한다</t>
+    <t>시스템은 재고량에 따라 주문요청을 수락또는 거절을 자동으로할수 있어야한다.
+주문 요청 감지: 구매자가 주문을 딱 넣는 순간 시스템이 바로 반응함.
+재고 확인: 주문 들어온 작물의 현재 재고가 몇 개인지 DB에서 확인.
+수량 비교: 구매자가 주문한 수량하고 현재 재고량을 비교함.
+재고량 &gt;= 주문 수량: 주문 상태를 '주문 수락'으로 바꾸고  재고 차감 후 생산자한테 "주문 들어왔어요~" 하고 알림 보냄.
+재고량 &lt; 주문 수량: 주문 상태를 '주문 거절'로 바꾸고 구매자한테 "재고 없어서 주문 안 돼요 ㅠㅠ" 하고 알림 보냄.
+이력 기록: 이 모든 자동 처리 과정은 주문 이력에 남겨둠.
+자동 처리 후 사용자에게 알림 전송 (수락/거절 결과)</t>
   </si>
   <si>
     <t>주문 조회 기능</t>
@@ -473,7 +627,12 @@
     <t>ORD_004</t>
   </si>
   <si>
-    <t>구매자는 작물 목록에서 원하는 품목을 검색/조회하고 주문할 수 있어야 한다.</t>
+    <t xml:space="preserve">구매자는 작물 목록에서 원하는 품목을 검색/조회하고 주문할 수 있어야 한다.
+검색/필터링: 작물 이름을 검색도 하고, 정렬 옵션을 품목명, 재고, 가격순으로 정렬가능
+조회 결과: 작물 목록을 보여줌. 이름, 가격, 그리고 지금 살 수 있는지(재고 상태) 같은 정보가 나옴.
+주문 가능 표시: 재고가 있으면 '바로 주문하기' 버튼 같은 게 활성화돼서 쉽게 주문할 수 있게 해줌.
+로직 : DB에서 필터 조건에 맞는 품목 조회 후 화면 표시
+</t>
   </si>
   <si>
     <t>주문 상태 확인 기능</t>
@@ -482,7 +641,10 @@
     <t>ORD_005</t>
   </si>
   <si>
-    <t>구매자는 주문 상태를 실시간으로 확인할 수 있어야 한다.</t>
+    <t>구매자는 주문 상태를 실시간으로 확인할 수 있어야 한다.
+조회 항목: 주문 번호, 주문날짜, 주문품명, 주문수량, 주문가격, 예상출고일
+현재 상태(주문 요청, 수락, 거절, 출고 준비, 배송 중, 배송 완료, 취소 등)를 보여줌.
+실시간 업데이트: 상태가 바뀌면 바로바로 화면에 반영되거나 알림이 오게 만들 수도 있음.</t>
   </si>
   <si>
     <t>주문 내역 조회 기능</t>
@@ -491,7 +653,11 @@
     <t>ORD_006</t>
   </si>
   <si>
-    <t>생산자와 구매자는 주문 내역(과거 주문 포함)을 조회할 수 있어야 한다.</t>
+    <t>생산자와 구매자는 주문 내역(과거 주문 포함)을 조회할 수 있어야 한다.
+조회 필터: 오늘 주문 , 지난주  주문, 지난달 주문, 아니면 특정 기간만 골라서 볼 수 있음
+상태별(완료된 거, 취소된 거 등)로도 나눠서 볼 수 있음. 특정 작물만 골라 볼 수도 있음
+조회 결과: 주문 번호, 품목명, 수량, 금액, 최종 상태, 주문일자, 출고일자 같은 게 보임
+로직 :  DB에서 주문 내역 조회 후 표시</t>
   </si>
   <si>
     <t>주문 현황 관리 기능</t>
@@ -500,7 +666,9 @@
     <t>ORD_007</t>
   </si>
   <si>
-    <t>관리자는 전체 주문 현황을 확인할 수 있어야 한다.</t>
+    <t>관리자는 전체 주문 현황을 확인할 수 있어야 한다.
+총 주문 건수, 기간별 주문 수, 매출
+주문 상세 확인: 특정 주문을 클릭하면 구매자 정보, 작물정보, 수량, 금액, 배송지 정보</t>
   </si>
   <si>
     <t>주문 이력 관리 기능</t>
@@ -509,7 +677,9 @@
     <t>ORD_008</t>
   </si>
   <si>
-    <t>시스템은 모든 주문 변경(생성/수락/거절/출고/취소) 이력을 기록해야 한다.</t>
+    <t>시스템은 모든 주문 변경(생성/수락/거절/출고/취소) 이력을 기록해야 한다.
+기록 항목: 주문 번호, 바꿘 날짜, 뭐가 어떻게 바뀌었는지(예: '주문 요청'에서 '주문 수락'으로), 
+누가 바꿨는지(시스템인지, 생산자인지, 구매자인지, 관리자인지), 그리고 왜 바뀌었는지(예: 거절 사유) 같은 걸 다 기록함.</t>
   </si>
   <si>
     <t>주문 수정 요청 기능</t>
@@ -518,7 +688,12 @@
     <t>ORD_009</t>
   </si>
   <si>
-    <t>구매자는 주문 생성 후 출고 전 단계까지 주문 내용을 수정(수량, 납기일, 수령지) 요청할 수 있어야 한다.</t>
+    <t>구매자는 주문 생성 후 출고 전 단계까지 주문 내용을 수정(수량, 납기일, 수령지) 요청할 수 있어야 한다.
+수정 가능 조건: 주문 상태가 '출고 준비' 단계로 넘어가기 전까지만 수정 요청 버튼이 보임. 
+수정 요청 시 생산자가 승인 필요, 승인 후 변경 내용 반영 및 이력 기록
+수정 요청 항목: 주문 수량,배송 주소, 요청 사항 
+검증 : 출고 전 상태인지 확인, 수정 입력값 유효성 확인 (수량 ≥ 1, 날짜 유효성 )
+로직 : 생산자에게 수정 요청 전달, 생산자 승인 시 변경 반영 및 이력 기록</t>
   </si>
   <si>
     <t>주문 변경 이력 관리</t>
@@ -527,7 +702,10 @@
     <t>ORD_010</t>
   </si>
   <si>
-    <t>수정된 주문은 변경 이력(변경 전/후 내용, 승인 일자)을 기록해야 한다.</t>
+    <t>수정된 주문은 변경 이력(변경 전/후 내용, 승인 일자)을 기록해야 한다.
+기록항목 : 어떤 주문이 변경됐는지, 언제 변경 요청했고 언제 승인/거절됐는지, 누가 요청하고 누가 처리했는지, 바뀌기 전 내용은 뭐였고 
+바뀐 후 내용은 뭔지, 그리고 승인/거절 사유는 뭔지 같은 걸 다 기록
+자동 기록: 구매자가 수정 요청할 때, 생산자가 그걸 승인하거나 거절할 때 시스템이 알아서 기록</t>
   </si>
   <si>
     <t>예측 관리 (Prediction)</t>
@@ -539,7 +717,14 @@
     <t>PRED_001</t>
   </si>
   <si>
-    <t>농작물의 성장률, 기후, 생육 단계 데이터를 종합 분석하여 예상 수확 가능일을 도출한다.</t>
+    <t>기능 설명: 생육률, 기후, 생육 단계를 종합적으로 분석하여 작물별 예상 수확일을 산정
+상세 로직:
+DB에서 작물별 생육 기준일(예: 씨앗 → 수확까지 평균 90일) 불러오기
+생육 센서 데이터:
+       일일 온도, 습도, 일조량 → 성장률 환산 (생육 모델 적용)
+       생육 단계 판단 (예: 발아기, 생장기, 수확기 등)
+누적 생육지수(Growth Degree Days) 계산
+평균 생장 곡선 대비 현재 성장률 비교 → 예측 수확일 산출</t>
   </si>
   <si>
     <t>윤소민</t>
@@ -551,7 +736,11 @@
     <t>PRED_002</t>
   </si>
   <si>
-    <t>예상 수확일과 건강도/품질 조건을 고려하여 "주문 가능/불가" 상태를 자동으로 판단한다.</t>
+    <t>기능 설명: 수확일과 건강도/품질 조건에 따라 실시간으로 주문 가능 여부 결정
+상세 로직:
+예상 수확일 ± 허용 오차 범위 내 접근 시 → 주문 가능성 검토
+생육 센서로부터 건강도 지표(예: 엽록소 농도, 광합성 효율, 병해충 유무 등) 수집
+건강도 및 수확 예측량이 기준 이상일 경우 → “주문 가능” 상태로 변경</t>
   </si>
   <si>
     <t>공공 생육/기상 API 연동</t>
@@ -560,7 +749,11 @@
     <t>PRED_003</t>
   </si>
   <si>
-    <t>공공 데이터(기상청 API, 생육 센서 API 등)를 활용해 생육 예측 정확도를 높인다.</t>
+    <t>기능 설명: 외부 기상 API, 생육 API를 활용해 데이터 보강
+상세 로직:
+기상청 API로 지역별 단기/중기 예보 가져오기
+생육 DB (정부 오픈 API 등)에서 유사 생장 패턴 데이터 비교
+실제 센서 데이터와 교차 검증 후 보정 계수 도출 → 예측 모델 입력값에 반영</t>
   </si>
   <si>
     <t>이상기후 반영 동적 예측</t>
@@ -569,7 +762,12 @@
     <t>PRED_004</t>
   </si>
   <si>
-    <t>태풍, 폭우, 혹한 등 이상기후 상황을 예측 모델에 반영해 수확일·배송일 예측을 자동 보정한다.</t>
+    <t>기능 설명: 태풍, 폭우 등 이상 기후에 따른 수확일 자동 조정
+상세 로직:
+기상 API로부터 ‘기상 특보’ 감지
+시나리오 테이블 적용:
+예: 태풍 발생 시 +3~5일 지연, 폭염 3일 이상 시 생육률 -20%
+이상기후 패턴이 감지되면 수확예측일 자동 수정 + 알림 전송</t>
   </si>
   <si>
     <t>예측 수확량 기반 
@@ -579,7 +777,11 @@
     <t>PRED_005</t>
   </si>
   <si>
-    <t>예측된 수확량을 바탕으로 생산자가 수동 등록할 수 있도록 안내하며, 시스템이 제안 값을 제공한다.</t>
+    <t>기능 설명: 생산자가 출하 등록 시, 예측 수확량을 제안값으로 보여줌
+상세 로직:
+작물별 단위 면적당 평균 생산량 × 생육 상태 반영 계수 계산
+수확 예정일 기준 3~7일 전, 생산자에게 “출하량 입력 알림” 발송
+입력 폼에 ‘시스템 제안값’ 표시 → 생산자가 수정 후 확정 가능</t>
   </si>
   <si>
     <t>주문량 대비 
@@ -589,7 +791,12 @@
     <t>PRED_006</t>
   </si>
   <si>
-    <t>주문 요청량과 예측 수확량을 비교하여 부족/과잉 여부를 판단하고 알림을 발송한다.</t>
+    <t>기능 설명: 예측 수확량과 소비자 주문량을 비교하여 알림
+상세 로직:
+총예측수확량 - 총주문량 값이 음수 → 부족 알림
+과잉일 경우 → 할인 제안 or B2B 유통 전환 추천
+관리자 대시보드에 실시간 차트 표시
+생산자에게 SMS 또는 앱 푸시 알림 전송</t>
   </si>
   <si>
     <t>생육 진행 상태 알림</t>
@@ -598,7 +805,10 @@
     <t>PRED_007</t>
   </si>
   <si>
-    <t>소비자에게 ‘생장 중’, ‘수확 임박’ 등의 상태 알림을 주기적으로 전송한다. 수확 일정이 변경되면 자동 알림도 제공한다.</t>
+    <t>기능 설명: 생장 진행 상태 및 수확 임박 여부를 소비자에게 주기적으로 안내
+상세 로직:
+작물 상태가 주요 단계(예: 생장률 70%, 수확 예정일 3일 전) 도달 시 ‘수확 임박’ 메시지 자동 발송
+기후나 건강도 문제로 예측 수확일 변경되면 기존 예약 소비자에게 변경 안내 메시지 발송</t>
   </si>
   <si>
     <t>병해충 감지에 따른 
@@ -608,7 +818,12 @@
     <t>PRED_008</t>
   </si>
   <si>
-    <t>병해충 발생 시기를 예측하거나 감지하여 출하일, 수확량에 대한 예측 결과를 실시간 조정한다.</t>
+    <t>기능 설명: 병해충 발생 예측 또는 센서 감지 시, 수확량 및 출하 일정 자동 조정
+상세 로직:
+생육 센서 or 카메라 기반 질병 탐지 AI 연동
+감염 발생 시 주변 지역 확산 모델 적용
+감염 구간의 수확량 제외 후 재계산 → 재고 수정, 출하일 변경
+자동 조정된 정보 기반 소비자 및 관리자 알림</t>
   </si>
   <si>
     <t>예측 이력 저장 및 
@@ -618,7 +833,32 @@
     <t>PRED_009</t>
   </si>
   <si>
-    <t>과거 예측 결과와 실제 수확 데이터 간 차이를 기록하여 예측 모델을 지속적으로 개선할 수 있게 한다.</t>
+    <t>기능 설명: 실제 수확 데이터와 예측값 간 오차를 기록하고 개선
+상세 로직:
+수확 후 실제 수확일/수확량 DB 저장
+예측값 - 실제값 차이 자동 기록
+오차가 일정 기준 초과 시, 모델 입력 계수 또는 학습 데이터 자동 업데이트 요청
+향후 예측 시 과거 오차를 반영한 보정 로직 적용</t>
+  </si>
+  <si>
+    <t>시스템이 예측 수확일에 따라 재고 수량 업데이트
+수확일이 되면 해당 작물의 재고 자동 갱신
+입력 항목
+- 작물 ID
+- 예측 수확일 : 수확일은 현재일 이후
+- 수확 예상 수량 : 0 이상 정수, 갖고 있는 수량에서 증감</t>
+  </si>
+  <si>
+    <t>생산자와 구매자는 주문 내역(과거 주문 포함)을 조회할 수 있어야 한다.
+조회 필터: 오늘 주문 , 지난주  주문, 지난달 주문, 아니면 특정 기간만 골라서 볼 수 있음
+상태별(완료된 거, 취소된 거 등)로도 나눠서 볼 수 있음. 특정 작물만 골라 볼 수도 있음
+조회 결과: 주문 번호, 품목명, 수량, 금액, 최종 상태, 주문일자, 출고일자 같은 게 보임</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구매자는 주문 생성 후 출고 전 단계까지 주문 내용을 수정(수량, 납기일, 수령지) 요청할 수 있어야 한다.
+수정 가능 조건: 주문 상태가 '출고 준비' 단계로 넘어가기 전까지만 수정 요청 버튼이 보임. 
+수정 요청 시 생산자가 승인 필요, 승인 후 변경 내용 반영 및 이력 기록
+수정 요청 항목: 주문 수량,배송 주소, 요청 사항 </t>
   </si>
 </sst>
 </file>
@@ -996,7 +1236,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1150,6 +1390,9 @@
     <xf borderId="22" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="12" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -1207,6 +1450,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1426,6 +1673,7 @@
     <col customWidth="1" min="7" max="7" width="119.86"/>
     <col customWidth="1" min="8" max="8" width="23.57"/>
     <col customWidth="1" min="9" max="9" width="17.14"/>
+    <col customWidth="1" min="10" max="10" width="61.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" hidden="1" customHeight="1" outlineLevel="1">
@@ -1539,14 +1787,14 @@
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="12"/>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="G8" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>23</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>13</v>
@@ -1560,19 +1808,19 @@
       <c r="C9" s="19"/>
       <c r="D9" s="12"/>
       <c r="E9" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>26</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="238.5" customHeight="1">
@@ -1580,19 +1828,19 @@
       <c r="C10" s="19"/>
       <c r="D10" s="12"/>
       <c r="E10" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="G10" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="42.0" customHeight="1">
@@ -1600,19 +1848,19 @@
       <c r="C11" s="30"/>
       <c r="D11" s="31"/>
       <c r="E11" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="G11" s="32" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>33</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1625,267 +1873,267 @@
       <c r="H12" s="34"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" ht="34.5" customHeight="1">
+    <row r="13" ht="108.75" customHeight="1">
       <c r="B13" s="18"/>
       <c r="C13" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="H13" s="39" t="s">
         <v>38</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>39</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="34.5" customHeight="1">
+    <row r="14" ht="108.75" customHeight="1">
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
       <c r="D14" s="12"/>
       <c r="E14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="G14" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>42</v>
-      </c>
       <c r="H14" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" ht="41.25" customHeight="1">
+    <row r="15" ht="108.75" customHeight="1">
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
       <c r="D15" s="12"/>
       <c r="E15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>45</v>
-      </c>
       <c r="H15" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="41.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="108.75" customHeight="1">
       <c r="B16" s="18"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
       <c r="E16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="G16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>48</v>
-      </c>
       <c r="H16" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" ht="41.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="108.75" customHeight="1">
       <c r="B17" s="18"/>
       <c r="C17" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="G17" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>52</v>
-      </c>
       <c r="H17" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" ht="41.25" customHeight="1">
+    <row r="18" ht="108.75" customHeight="1">
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="12"/>
       <c r="E18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="G18" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>55</v>
-      </c>
       <c r="H18" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="41.25" customHeight="1">
+    <row r="19" ht="108.75" customHeight="1">
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="12"/>
       <c r="E19" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="G19" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>58</v>
-      </c>
       <c r="H19" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" ht="41.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" ht="108.75" customHeight="1">
       <c r="B20" s="18"/>
       <c r="C20" s="30"/>
       <c r="D20" s="31"/>
       <c r="E20" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="G20" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>61</v>
-      </c>
       <c r="H20" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="41.25" customHeight="1">
+    <row r="21" ht="108.75" customHeight="1">
       <c r="B21" s="18"/>
       <c r="C21" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="41"/>
       <c r="E21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="G21" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>65</v>
-      </c>
       <c r="H21" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="41.25" customHeight="1">
+    <row r="22" ht="108.75" customHeight="1">
       <c r="B22" s="18"/>
       <c r="C22" s="19"/>
       <c r="E22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>68</v>
-      </c>
       <c r="H22" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I22" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" ht="41.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="108.75" customHeight="1">
       <c r="B23" s="18"/>
       <c r="C23" s="19"/>
       <c r="E23" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="G23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="38" t="s">
-        <v>71</v>
-      </c>
       <c r="H23" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I23" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" ht="41.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" ht="108.75" customHeight="1">
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="E24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="G24" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>74</v>
-      </c>
       <c r="H24" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="41.25" customHeight="1">
+    <row r="25" ht="108.75" customHeight="1">
       <c r="B25" s="18"/>
       <c r="C25" s="30"/>
       <c r="D25" s="42"/>
       <c r="E25" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="G25" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="38" t="s">
-        <v>77</v>
-      </c>
       <c r="H25" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -1898,166 +2146,166 @@
       <c r="H26" s="34"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" ht="41.25" customHeight="1">
+    <row r="27" ht="132.75" customHeight="1">
       <c r="B27" s="18"/>
       <c r="C27" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="G27" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="G27" s="38" t="s">
-        <v>81</v>
-      </c>
       <c r="H27" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I27" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" ht="41.25" customHeight="1">
+    <row r="28" ht="132.75" customHeight="1">
       <c r="B28" s="18"/>
       <c r="C28" s="19"/>
       <c r="D28" s="12"/>
       <c r="E28" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="G28" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="38" t="s">
-        <v>84</v>
-      </c>
       <c r="H28" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" ht="41.25" customHeight="1">
+    <row r="29" ht="132.75" customHeight="1">
       <c r="B29" s="18"/>
       <c r="C29" s="19"/>
       <c r="D29" s="12"/>
       <c r="E29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="G29" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>87</v>
-      </c>
       <c r="H29" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" ht="41.25" customHeight="1">
+    <row r="30" ht="132.75" customHeight="1">
       <c r="B30" s="18"/>
       <c r="C30" s="19"/>
       <c r="D30" s="12"/>
       <c r="E30" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="G30" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>90</v>
-      </c>
       <c r="H30" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" ht="41.25" customHeight="1">
+    <row r="31" ht="132.75" customHeight="1">
       <c r="B31" s="18"/>
       <c r="C31" s="19"/>
       <c r="D31" s="12"/>
       <c r="E31" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="G31" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="38" t="s">
-        <v>93</v>
-      </c>
       <c r="H31" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" ht="41.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" ht="132.75" customHeight="1">
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="12"/>
       <c r="E32" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="G32" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>96</v>
-      </c>
       <c r="H32" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I32" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" ht="41.25" customHeight="1">
+    <row r="33" ht="132.75" customHeight="1">
       <c r="B33" s="18"/>
       <c r="C33" s="19"/>
       <c r="D33" s="12"/>
       <c r="E33" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="G33" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="38" t="s">
-        <v>99</v>
-      </c>
       <c r="H33" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" ht="41.25" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" ht="132.75" customHeight="1">
       <c r="B34" s="18"/>
       <c r="C34" s="30"/>
       <c r="D34" s="31"/>
       <c r="E34" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="G34" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="38" t="s">
-        <v>102</v>
-      </c>
       <c r="H34" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="15.0" customHeight="1">
@@ -2070,103 +2318,103 @@
       <c r="H35" s="34"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" ht="39.0" customHeight="1">
+    <row r="36">
       <c r="B36" s="18"/>
       <c r="C36" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="23" t="s">
+      <c r="G36" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="H36" s="46" t="s">
         <v>106</v>
-      </c>
-      <c r="H36" s="46" t="s">
-        <v>107</v>
       </c>
       <c r="I36" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" ht="39.0" customHeight="1">
+    <row r="37">
       <c r="B37" s="18"/>
       <c r="C37" s="19"/>
       <c r="D37" s="12"/>
       <c r="E37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="G37" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="45" t="s">
-        <v>110</v>
-      </c>
       <c r="H37" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" ht="39.0" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="B38" s="18"/>
       <c r="C38" s="19"/>
       <c r="D38" s="12"/>
       <c r="E38" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="G38" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="45" t="s">
-        <v>113</v>
-      </c>
       <c r="H38" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I38" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" ht="39.0" customHeight="1">
+    <row r="39">
       <c r="B39" s="18"/>
       <c r="C39" s="19"/>
       <c r="D39" s="12"/>
       <c r="E39" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="G39" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="45" t="s">
-        <v>116</v>
-      </c>
       <c r="H39" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I39" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" ht="39.0" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="12"/>
       <c r="E40" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="G40" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="45" t="s">
-        <v>119</v>
-      </c>
       <c r="H40" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I40" s="26" t="s">
         <v>14</v>
@@ -2182,23 +2430,23 @@
       <c r="H41" s="34"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" ht="42.75" customHeight="1">
+    <row r="42" ht="47.25" customHeight="1">
       <c r="B42" s="18"/>
       <c r="C42" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D42" s="12"/>
       <c r="E42" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="G42" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="H42" s="39" t="s">
         <v>123</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>124</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>14</v>
@@ -2209,96 +2457,96 @@
       <c r="C43" s="19"/>
       <c r="D43" s="12"/>
       <c r="E43" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="G43" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="38" t="s">
-        <v>127</v>
-      </c>
       <c r="H43" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I43" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" ht="42.75" customHeight="1">
+    <row r="44" ht="126.0" customHeight="1">
       <c r="B44" s="18"/>
       <c r="C44" s="19"/>
       <c r="D44" s="12"/>
       <c r="E44" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="G44" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="G44" s="38" t="s">
-        <v>130</v>
-      </c>
       <c r="H44" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I44" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" ht="42.75" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" ht="67.5" customHeight="1">
       <c r="B45" s="18"/>
       <c r="C45" s="19"/>
       <c r="D45" s="12"/>
       <c r="E45" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="G45" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="G45" s="38" t="s">
-        <v>133</v>
-      </c>
       <c r="H45" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I45" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" ht="42.75" customHeight="1">
+    <row r="46" ht="81.75" customHeight="1">
       <c r="B46" s="18"/>
       <c r="C46" s="19"/>
       <c r="D46" s="12"/>
       <c r="E46" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="G46" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="38" t="s">
-        <v>136</v>
-      </c>
       <c r="H46" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I46" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" ht="42.75" customHeight="1">
+    <row r="47" ht="72.0" customHeight="1">
       <c r="B47" s="18"/>
       <c r="C47" s="19"/>
       <c r="D47" s="12"/>
       <c r="E47" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="G47" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G47" s="38" t="s">
-        <v>139</v>
-      </c>
       <c r="H47" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I47" s="40" t="s">
         <v>14</v>
@@ -2309,19 +2557,19 @@
       <c r="C48" s="19"/>
       <c r="D48" s="12"/>
       <c r="E48" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="G48" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="G48" s="38" t="s">
-        <v>142</v>
-      </c>
       <c r="H48" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I48" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" ht="42.75" customHeight="1">
@@ -2329,56 +2577,56 @@
       <c r="C49" s="19"/>
       <c r="D49" s="12"/>
       <c r="E49" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="G49" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="G49" s="38" t="s">
-        <v>145</v>
-      </c>
       <c r="H49" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I49" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" ht="42.75" customHeight="1">
+    <row r="50" ht="83.25" customHeight="1">
       <c r="B50" s="18"/>
       <c r="C50" s="19"/>
       <c r="D50" s="12"/>
       <c r="E50" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="G50" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="G50" s="38" t="s">
-        <v>148</v>
-      </c>
       <c r="H50" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I50" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" ht="42.75" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" ht="66.0" customHeight="1">
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="12"/>
       <c r="E51" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F51" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="G51" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="G51" s="38" t="s">
-        <v>151</v>
-      </c>
       <c r="H51" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I51" s="40" t="s">
         <v>14</v>
@@ -2412,236 +2660,236 @@
       <c r="I52" s="35"/>
       <c r="J52" s="50"/>
     </row>
-    <row r="53" ht="42.75" customHeight="1">
+    <row r="53" ht="150.0" customHeight="1">
       <c r="B53" s="18"/>
       <c r="C53" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="G53" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="H53" s="46" t="s">
         <v>155</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>156</v>
       </c>
       <c r="I53" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" ht="42.75" customHeight="1">
+    <row r="54" ht="102.75" customHeight="1">
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="12"/>
       <c r="E54" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="G54" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="38" t="s">
-        <v>159</v>
-      </c>
       <c r="H54" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I54" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55" ht="42.75" customHeight="1">
+    <row r="55" ht="93.75" customHeight="1">
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="12"/>
       <c r="E55" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="G55" s="51" t="s">
         <v>161</v>
       </c>
-      <c r="G55" s="38" t="s">
-        <v>162</v>
-      </c>
       <c r="H55" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I55" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" ht="42.75" customHeight="1">
+    <row r="56" ht="124.5" customHeight="1">
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="12"/>
       <c r="E56" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="20" t="s">
+      <c r="G56" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="38" t="s">
-        <v>165</v>
-      </c>
       <c r="H56" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" ht="42.75" customHeight="1">
+        <v>155</v>
+      </c>
+      <c r="I56" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" ht="107.25" customHeight="1">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="12"/>
       <c r="E57" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="G57" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="38" t="s">
-        <v>168</v>
-      </c>
       <c r="H57" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I57" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" ht="42.75" customHeight="1">
+        <v>155</v>
+      </c>
+      <c r="I57" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" ht="120.75" customHeight="1">
       <c r="B58" s="18"/>
       <c r="C58" s="19"/>
       <c r="D58" s="12"/>
       <c r="E58" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="20" t="s">
+      <c r="G58" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="G58" s="38" t="s">
-        <v>171</v>
-      </c>
       <c r="H58" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I58" s="51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" ht="42.75" customHeight="1">
+        <v>155</v>
+      </c>
+      <c r="I58" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" ht="90.75" customHeight="1">
       <c r="B59" s="18"/>
       <c r="C59" s="19"/>
       <c r="D59" s="12"/>
       <c r="E59" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F59" s="20" t="s">
+      <c r="G59" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="G59" s="38" t="s">
-        <v>174</v>
-      </c>
       <c r="H59" s="46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I59" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" ht="42.75" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" ht="114.0" customHeight="1">
       <c r="B60" s="18"/>
       <c r="C60" s="19"/>
       <c r="D60" s="12"/>
       <c r="E60" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="F60" s="20" t="s">
+      <c r="G60" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="G60" s="38" t="s">
+      <c r="H60" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" ht="124.5" customHeight="1">
+      <c r="B61" s="53"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="H60" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="I60" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" ht="42.75" customHeight="1">
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="55" t="s">
+      <c r="F61" s="56" t="s">
         <v>178</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="G61" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="G61" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="H61" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="I61" s="58" t="s">
-        <v>34</v>
+      <c r="H61" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="I61" s="59" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="62" ht="30.0" customHeight="1">
       <c r="B62" s="2"/>
-      <c r="C62" s="59"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="60"/>
+      <c r="E62" s="61"/>
       <c r="F62" s="3"/>
       <c r="G62" s="21"/>
     </row>
     <row r="63" ht="30.0" customHeight="1">
       <c r="B63" s="2"/>
-      <c r="C63" s="59"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="60"/>
+      <c r="E63" s="61"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" ht="30.0" customHeight="1">
       <c r="B64" s="2"/>
-      <c r="C64" s="59"/>
+      <c r="C64" s="60"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="60"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" ht="39.75" customHeight="1">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="61"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="62"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" ht="27.75" customHeight="1">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="60"/>
+      <c r="E66" s="61"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" ht="41.25" customHeight="1">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="60"/>
+      <c r="E67" s="61"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" ht="30.75" customHeight="1">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="61"/>
+      <c r="E68" s="62"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" ht="17.25" customHeight="1">
@@ -3484,30 +3732,30 @@
       <c r="F188" s="3"/>
     </row>
     <row r="189" ht="17.25" customHeight="1">
-      <c r="B189" s="62"/>
-      <c r="C189" s="62"/>
-      <c r="D189" s="62"/>
-      <c r="E189" s="61"/>
+      <c r="B189" s="63"/>
+      <c r="C189" s="63"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="62"/>
       <c r="F189" s="3"/>
     </row>
     <row r="190" ht="17.25" customHeight="1">
-      <c r="E190" s="61"/>
+      <c r="E190" s="62"/>
       <c r="F190" s="3"/>
     </row>
     <row r="191" ht="17.25" customHeight="1">
-      <c r="E191" s="61"/>
+      <c r="E191" s="62"/>
       <c r="F191" s="3"/>
     </row>
     <row r="192" ht="17.25" customHeight="1">
-      <c r="E192" s="61"/>
+      <c r="E192" s="62"/>
       <c r="F192" s="3"/>
     </row>
     <row r="193" ht="17.25" customHeight="1">
-      <c r="E193" s="61"/>
+      <c r="E193" s="62"/>
       <c r="F193" s="3"/>
     </row>
     <row r="194" ht="17.25" customHeight="1">
-      <c r="E194" s="61"/>
+      <c r="E194" s="62"/>
       <c r="F194" s="3"/>
     </row>
     <row r="195" ht="17.25" customHeight="1">
@@ -3560,26 +3808,26 @@
       <c r="F201" s="3"/>
     </row>
     <row r="202" ht="17.25" customHeight="1">
-      <c r="B202" s="62"/>
-      <c r="C202" s="62"/>
-      <c r="D202" s="62"/>
-      <c r="E202" s="61"/>
+      <c r="B202" s="63"/>
+      <c r="C202" s="63"/>
+      <c r="D202" s="63"/>
+      <c r="E202" s="62"/>
       <c r="F202" s="3"/>
     </row>
     <row r="203" ht="17.25" customHeight="1">
-      <c r="E203" s="61"/>
+      <c r="E203" s="62"/>
       <c r="F203" s="3"/>
     </row>
     <row r="204" ht="17.25" customHeight="1">
-      <c r="E204" s="61"/>
+      <c r="E204" s="62"/>
       <c r="F204" s="3"/>
     </row>
     <row r="205" ht="17.25" customHeight="1">
-      <c r="E205" s="61"/>
+      <c r="E205" s="62"/>
       <c r="F205" s="3"/>
     </row>
     <row r="206" ht="17.25" customHeight="1">
-      <c r="E206" s="61"/>
+      <c r="E206" s="62"/>
       <c r="F206" s="3"/>
     </row>
     <row r="207" ht="17.25" customHeight="1">
@@ -3611,26 +3859,26 @@
       <c r="F210" s="3"/>
     </row>
     <row r="211" ht="17.25" customHeight="1">
-      <c r="B211" s="62"/>
-      <c r="C211" s="62"/>
-      <c r="D211" s="62"/>
-      <c r="E211" s="61"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="63"/>
+      <c r="E211" s="62"/>
       <c r="F211" s="3"/>
     </row>
     <row r="212" ht="17.25" customHeight="1">
-      <c r="E212" s="61"/>
+      <c r="E212" s="62"/>
       <c r="F212" s="3"/>
     </row>
     <row r="213" ht="17.25" customHeight="1">
-      <c r="E213" s="61"/>
+      <c r="E213" s="62"/>
       <c r="F213" s="3"/>
     </row>
     <row r="214" ht="17.25" customHeight="1">
-      <c r="E214" s="61"/>
+      <c r="E214" s="62"/>
       <c r="F214" s="3"/>
     </row>
     <row r="215" ht="17.25" customHeight="1">
-      <c r="E215" s="63"/>
+      <c r="E215" s="64"/>
       <c r="F215" s="3"/>
     </row>
     <row r="216" ht="17.25" customHeight="1">
@@ -3684,3102 +3932,3102 @@
     </row>
     <row r="223" ht="17.25" customHeight="1">
       <c r="B223" s="2"/>
-      <c r="C223" s="62"/>
-      <c r="D223" s="62"/>
-      <c r="E223" s="61"/>
+      <c r="C223" s="63"/>
+      <c r="D223" s="63"/>
+      <c r="E223" s="62"/>
       <c r="F223" s="3"/>
     </row>
     <row r="224" ht="17.25" customHeight="1">
-      <c r="B224" s="59"/>
-      <c r="E224" s="61"/>
+      <c r="B224" s="60"/>
+      <c r="E224" s="62"/>
       <c r="F224" s="3"/>
     </row>
     <row r="225" ht="17.25" customHeight="1">
       <c r="B225" s="2"/>
-      <c r="E225" s="61"/>
+      <c r="E225" s="62"/>
       <c r="F225" s="3"/>
     </row>
     <row r="226" ht="17.25" customHeight="1">
       <c r="B226" s="2"/>
-      <c r="E226" s="61"/>
+      <c r="E226" s="62"/>
       <c r="F226" s="3"/>
     </row>
     <row r="227" ht="17.25" customHeight="1">
-      <c r="B227" s="59"/>
-      <c r="E227" s="61"/>
+      <c r="B227" s="60"/>
+      <c r="E227" s="62"/>
       <c r="F227" s="3"/>
     </row>
     <row r="228" ht="17.25" customHeight="1">
-      <c r="B228" s="59"/>
-      <c r="C228" s="62"/>
-      <c r="D228" s="62"/>
-      <c r="E228" s="61"/>
+      <c r="B228" s="60"/>
+      <c r="C228" s="63"/>
+      <c r="D228" s="63"/>
+      <c r="E228" s="62"/>
       <c r="F228" s="3"/>
     </row>
     <row r="229" ht="17.25" customHeight="1">
       <c r="B229" s="2"/>
-      <c r="E229" s="61"/>
+      <c r="E229" s="62"/>
       <c r="F229" s="3"/>
     </row>
     <row r="230" ht="17.25" customHeight="1">
       <c r="B230" s="2"/>
-      <c r="E230" s="61"/>
+      <c r="E230" s="62"/>
       <c r="F230" s="3"/>
     </row>
     <row r="231" ht="17.25" customHeight="1">
-      <c r="B231" s="59"/>
-      <c r="E231" s="61"/>
+      <c r="B231" s="60"/>
+      <c r="E231" s="62"/>
       <c r="F231" s="3"/>
     </row>
     <row r="232" ht="17.25" customHeight="1">
       <c r="B232" s="2"/>
-      <c r="E232" s="61"/>
+      <c r="E232" s="62"/>
       <c r="F232" s="3"/>
     </row>
     <row r="233" ht="17.25" customHeight="1">
-      <c r="B233" s="59"/>
-      <c r="C233" s="62"/>
-      <c r="D233" s="62"/>
-      <c r="E233" s="61"/>
+      <c r="B233" s="60"/>
+      <c r="C233" s="63"/>
+      <c r="D233" s="63"/>
+      <c r="E233" s="62"/>
       <c r="F233" s="3"/>
     </row>
     <row r="234" ht="17.25" customHeight="1">
       <c r="B234" s="2"/>
-      <c r="E234" s="61"/>
+      <c r="E234" s="62"/>
       <c r="F234" s="3"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="E235" s="61"/>
-      <c r="F235" s="64"/>
+      <c r="E235" s="62"/>
+      <c r="F235" s="65"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="E236" s="61"/>
-      <c r="F236" s="64"/>
+      <c r="E236" s="62"/>
+      <c r="F236" s="65"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="E237" s="61"/>
-      <c r="F237" s="64"/>
+      <c r="E237" s="62"/>
+      <c r="F237" s="65"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="E238" s="61"/>
-      <c r="F238" s="64"/>
+      <c r="E238" s="62"/>
+      <c r="F238" s="65"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="C239" s="62"/>
-      <c r="D239" s="62"/>
-      <c r="E239" s="61"/>
-      <c r="F239" s="61"/>
+      <c r="C239" s="63"/>
+      <c r="D239" s="63"/>
+      <c r="E239" s="62"/>
+      <c r="F239" s="62"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="E240" s="61"/>
-      <c r="F240" s="64"/>
+      <c r="E240" s="62"/>
+      <c r="F240" s="65"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="E241" s="61"/>
-      <c r="F241" s="64"/>
+      <c r="E241" s="62"/>
+      <c r="F241" s="65"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="E242" s="61"/>
-      <c r="F242" s="64"/>
+      <c r="E242" s="62"/>
+      <c r="F242" s="65"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="E243" s="61"/>
-      <c r="F243" s="64"/>
+      <c r="E243" s="62"/>
+      <c r="F243" s="65"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="E244" s="61"/>
-      <c r="F244" s="64"/>
+      <c r="E244" s="62"/>
+      <c r="F244" s="65"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="E245" s="61"/>
-      <c r="F245" s="64"/>
+      <c r="E245" s="62"/>
+      <c r="F245" s="65"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="E246" s="61"/>
-      <c r="F246" s="64"/>
+      <c r="E246" s="62"/>
+      <c r="F246" s="65"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="E247" s="61"/>
-      <c r="F247" s="64"/>
+      <c r="E247" s="62"/>
+      <c r="F247" s="65"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="E248" s="65"/>
-      <c r="F248" s="64"/>
+      <c r="E248" s="66"/>
+      <c r="F248" s="65"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="E249" s="65"/>
-      <c r="F249" s="64"/>
+      <c r="E249" s="66"/>
+      <c r="F249" s="65"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="E250" s="65"/>
-      <c r="F250" s="64"/>
+      <c r="E250" s="66"/>
+      <c r="F250" s="65"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="E251" s="65"/>
-      <c r="F251" s="64"/>
+      <c r="E251" s="66"/>
+      <c r="F251" s="65"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="E252" s="65"/>
-      <c r="F252" s="64"/>
+      <c r="E252" s="66"/>
+      <c r="F252" s="65"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="E253" s="65"/>
-      <c r="F253" s="64"/>
+      <c r="E253" s="66"/>
+      <c r="F253" s="65"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="E254" s="65"/>
-      <c r="F254" s="64"/>
+      <c r="E254" s="66"/>
+      <c r="F254" s="65"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="E255" s="65"/>
-      <c r="F255" s="64"/>
+      <c r="E255" s="66"/>
+      <c r="F255" s="65"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="E256" s="65"/>
-      <c r="F256" s="64"/>
+      <c r="E256" s="66"/>
+      <c r="F256" s="65"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="E257" s="65"/>
-      <c r="F257" s="64"/>
+      <c r="E257" s="66"/>
+      <c r="F257" s="65"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="E258" s="65"/>
-      <c r="F258" s="64"/>
+      <c r="E258" s="66"/>
+      <c r="F258" s="65"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="E259" s="65"/>
-      <c r="F259" s="64"/>
+      <c r="E259" s="66"/>
+      <c r="F259" s="65"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="E260" s="65"/>
-      <c r="F260" s="64"/>
+      <c r="E260" s="66"/>
+      <c r="F260" s="65"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="E261" s="65"/>
-      <c r="F261" s="64"/>
+      <c r="E261" s="66"/>
+      <c r="F261" s="65"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="62"/>
-      <c r="C262" s="62"/>
-      <c r="D262" s="62"/>
-      <c r="E262" s="61"/>
-      <c r="F262" s="64"/>
+      <c r="B262" s="63"/>
+      <c r="C262" s="63"/>
+      <c r="D262" s="63"/>
+      <c r="E262" s="62"/>
+      <c r="F262" s="65"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="E263" s="61"/>
-      <c r="F263" s="64"/>
+      <c r="E263" s="62"/>
+      <c r="F263" s="65"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="E264" s="61"/>
-      <c r="F264" s="64"/>
+      <c r="E264" s="62"/>
+      <c r="F264" s="65"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="E265" s="61"/>
-      <c r="F265" s="64"/>
+      <c r="E265" s="62"/>
+      <c r="F265" s="65"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="E266" s="61"/>
-      <c r="F266" s="64"/>
+      <c r="E266" s="62"/>
+      <c r="F266" s="65"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="E267" s="61"/>
-      <c r="F267" s="64"/>
+      <c r="E267" s="62"/>
+      <c r="F267" s="65"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="E268" s="61"/>
-      <c r="F268" s="64"/>
+      <c r="E268" s="62"/>
+      <c r="F268" s="65"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="E269" s="61"/>
-      <c r="F269" s="64"/>
+      <c r="E269" s="62"/>
+      <c r="F269" s="65"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="E270" s="61"/>
-      <c r="F270" s="64"/>
+      <c r="E270" s="62"/>
+      <c r="F270" s="65"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="E271" s="65"/>
-      <c r="F271" s="64"/>
+      <c r="E271" s="66"/>
+      <c r="F271" s="65"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="E272" s="65"/>
-      <c r="F272" s="64"/>
+      <c r="E272" s="66"/>
+      <c r="F272" s="65"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="E273" s="65"/>
-      <c r="F273" s="64"/>
+      <c r="E273" s="66"/>
+      <c r="F273" s="65"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="E274" s="65"/>
-      <c r="F274" s="64"/>
+      <c r="E274" s="66"/>
+      <c r="F274" s="65"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="E275" s="65"/>
-      <c r="F275" s="64"/>
+      <c r="E275" s="66"/>
+      <c r="F275" s="65"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="E276" s="65"/>
-      <c r="F276" s="64"/>
+      <c r="E276" s="66"/>
+      <c r="F276" s="65"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="E277" s="65"/>
-      <c r="F277" s="64"/>
+      <c r="E277" s="66"/>
+      <c r="F277" s="65"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="E278" s="65"/>
-      <c r="F278" s="64"/>
+      <c r="E278" s="66"/>
+      <c r="F278" s="65"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="E279" s="65"/>
-      <c r="F279" s="64"/>
+      <c r="E279" s="66"/>
+      <c r="F279" s="65"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="E280" s="65"/>
-      <c r="F280" s="64"/>
+      <c r="E280" s="66"/>
+      <c r="F280" s="65"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="E281" s="65"/>
-      <c r="F281" s="64"/>
+      <c r="E281" s="66"/>
+      <c r="F281" s="65"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="E282" s="65"/>
-      <c r="F282" s="64"/>
+      <c r="E282" s="66"/>
+      <c r="F282" s="65"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="E283" s="65"/>
-      <c r="F283" s="64"/>
+      <c r="E283" s="66"/>
+      <c r="F283" s="65"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="E284" s="65"/>
-      <c r="F284" s="64"/>
+      <c r="E284" s="66"/>
+      <c r="F284" s="65"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="E285" s="65"/>
-      <c r="F285" s="64"/>
+      <c r="E285" s="66"/>
+      <c r="F285" s="65"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="E286" s="65"/>
-      <c r="F286" s="64"/>
+      <c r="E286" s="66"/>
+      <c r="F286" s="65"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="E287" s="65"/>
-      <c r="F287" s="64"/>
+      <c r="E287" s="66"/>
+      <c r="F287" s="65"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="E288" s="65"/>
-      <c r="F288" s="64"/>
+      <c r="E288" s="66"/>
+      <c r="F288" s="65"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="E289" s="65"/>
-      <c r="F289" s="64"/>
+      <c r="E289" s="66"/>
+      <c r="F289" s="65"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="E290" s="65"/>
-      <c r="F290" s="64"/>
+      <c r="E290" s="66"/>
+      <c r="F290" s="65"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="E291" s="65"/>
-      <c r="F291" s="64"/>
+      <c r="E291" s="66"/>
+      <c r="F291" s="65"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="E292" s="65"/>
-      <c r="F292" s="64"/>
+      <c r="E292" s="66"/>
+      <c r="F292" s="65"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="E293" s="65"/>
-      <c r="F293" s="64"/>
+      <c r="E293" s="66"/>
+      <c r="F293" s="65"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="E294" s="65"/>
-      <c r="F294" s="64"/>
+      <c r="E294" s="66"/>
+      <c r="F294" s="65"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="E295" s="65"/>
-      <c r="F295" s="64"/>
+      <c r="E295" s="66"/>
+      <c r="F295" s="65"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="E296" s="65"/>
-      <c r="F296" s="64"/>
+      <c r="E296" s="66"/>
+      <c r="F296" s="65"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="E297" s="65"/>
-      <c r="F297" s="64"/>
+      <c r="E297" s="66"/>
+      <c r="F297" s="65"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="E298" s="65"/>
-      <c r="F298" s="64"/>
+      <c r="E298" s="66"/>
+      <c r="F298" s="65"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="E299" s="65"/>
-      <c r="F299" s="64"/>
+      <c r="E299" s="66"/>
+      <c r="F299" s="65"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="E300" s="65"/>
-      <c r="F300" s="64"/>
+      <c r="E300" s="66"/>
+      <c r="F300" s="65"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="E301" s="65"/>
-      <c r="F301" s="64"/>
+      <c r="E301" s="66"/>
+      <c r="F301" s="65"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="E302" s="65"/>
-      <c r="F302" s="64"/>
+      <c r="E302" s="66"/>
+      <c r="F302" s="65"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="E303" s="65"/>
-      <c r="F303" s="64"/>
+      <c r="E303" s="66"/>
+      <c r="F303" s="65"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="E304" s="65"/>
-      <c r="F304" s="64"/>
+      <c r="E304" s="66"/>
+      <c r="F304" s="65"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="E305" s="65"/>
-      <c r="F305" s="64"/>
+      <c r="E305" s="66"/>
+      <c r="F305" s="65"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="E306" s="65"/>
-      <c r="F306" s="64"/>
+      <c r="E306" s="66"/>
+      <c r="F306" s="65"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="E307" s="65"/>
-      <c r="F307" s="64"/>
+      <c r="E307" s="66"/>
+      <c r="F307" s="65"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="E308" s="65"/>
-      <c r="F308" s="64"/>
+      <c r="E308" s="66"/>
+      <c r="F308" s="65"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="E309" s="65"/>
-      <c r="F309" s="64"/>
+      <c r="E309" s="66"/>
+      <c r="F309" s="65"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="E310" s="65"/>
-      <c r="F310" s="64"/>
+      <c r="E310" s="66"/>
+      <c r="F310" s="65"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="E311" s="65"/>
-      <c r="F311" s="64"/>
+      <c r="E311" s="66"/>
+      <c r="F311" s="65"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="E312" s="65"/>
-      <c r="F312" s="64"/>
+      <c r="E312" s="66"/>
+      <c r="F312" s="65"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="E313" s="65"/>
-      <c r="F313" s="64"/>
+      <c r="E313" s="66"/>
+      <c r="F313" s="65"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="E314" s="65"/>
-      <c r="F314" s="64"/>
+      <c r="E314" s="66"/>
+      <c r="F314" s="65"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="E315" s="65"/>
-      <c r="F315" s="64"/>
+      <c r="E315" s="66"/>
+      <c r="F315" s="65"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="E316" s="65"/>
-      <c r="F316" s="64"/>
+      <c r="E316" s="66"/>
+      <c r="F316" s="65"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="E317" s="65"/>
-      <c r="F317" s="64"/>
+      <c r="E317" s="66"/>
+      <c r="F317" s="65"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="E318" s="65"/>
-      <c r="F318" s="64"/>
+      <c r="E318" s="66"/>
+      <c r="F318" s="65"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="E319" s="65"/>
-      <c r="F319" s="64"/>
+      <c r="E319" s="66"/>
+      <c r="F319" s="65"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="E320" s="65"/>
-      <c r="F320" s="64"/>
+      <c r="E320" s="66"/>
+      <c r="F320" s="65"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="E321" s="65"/>
-      <c r="F321" s="64"/>
+      <c r="E321" s="66"/>
+      <c r="F321" s="65"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="62"/>
-      <c r="E322" s="61"/>
-      <c r="F322" s="61"/>
+      <c r="D322" s="63"/>
+      <c r="E322" s="62"/>
+      <c r="F322" s="62"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="E323" s="65"/>
-      <c r="F323" s="64"/>
+      <c r="E323" s="66"/>
+      <c r="F323" s="65"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="E324" s="61"/>
-      <c r="F324" s="64"/>
+      <c r="E324" s="62"/>
+      <c r="F324" s="65"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="E325" s="61"/>
-      <c r="F325" s="64"/>
+      <c r="E325" s="62"/>
+      <c r="F325" s="65"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="E326" s="61"/>
-      <c r="F326" s="64"/>
+      <c r="E326" s="62"/>
+      <c r="F326" s="65"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="E327" s="61"/>
-      <c r="F327" s="64"/>
+      <c r="E327" s="62"/>
+      <c r="F327" s="65"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="E328" s="61"/>
-      <c r="F328" s="64"/>
+      <c r="E328" s="62"/>
+      <c r="F328" s="65"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="E329" s="61"/>
-      <c r="F329" s="64"/>
+      <c r="E329" s="62"/>
+      <c r="F329" s="65"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="E330" s="61"/>
-      <c r="F330" s="64"/>
+      <c r="E330" s="62"/>
+      <c r="F330" s="65"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="E331" s="61"/>
-      <c r="F331" s="64"/>
+      <c r="E331" s="62"/>
+      <c r="F331" s="65"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="E332" s="61"/>
-      <c r="F332" s="64"/>
+      <c r="E332" s="62"/>
+      <c r="F332" s="65"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="E333" s="61"/>
-      <c r="F333" s="64"/>
+      <c r="E333" s="62"/>
+      <c r="F333" s="65"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="E334" s="65"/>
-      <c r="F334" s="64"/>
+      <c r="E334" s="66"/>
+      <c r="F334" s="65"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="E335" s="65"/>
-      <c r="F335" s="64"/>
+      <c r="E335" s="66"/>
+      <c r="F335" s="65"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="E336" s="65"/>
-      <c r="F336" s="64"/>
+      <c r="E336" s="66"/>
+      <c r="F336" s="65"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="E337" s="65"/>
-      <c r="F337" s="64"/>
+      <c r="E337" s="66"/>
+      <c r="F337" s="65"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="E338" s="65"/>
-      <c r="F338" s="64"/>
+      <c r="E338" s="66"/>
+      <c r="F338" s="65"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="E339" s="65"/>
-      <c r="F339" s="64"/>
+      <c r="E339" s="66"/>
+      <c r="F339" s="65"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="E340" s="65"/>
-      <c r="F340" s="64"/>
+      <c r="E340" s="66"/>
+      <c r="F340" s="65"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="E341" s="65"/>
-      <c r="F341" s="64"/>
+      <c r="E341" s="66"/>
+      <c r="F341" s="65"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="E342" s="65"/>
-      <c r="F342" s="64"/>
+      <c r="E342" s="66"/>
+      <c r="F342" s="65"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="E343" s="65"/>
-      <c r="F343" s="64"/>
+      <c r="E343" s="66"/>
+      <c r="F343" s="65"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="E344" s="65"/>
-      <c r="F344" s="64"/>
+      <c r="E344" s="66"/>
+      <c r="F344" s="65"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="E345" s="65"/>
-      <c r="F345" s="64"/>
+      <c r="E345" s="66"/>
+      <c r="F345" s="65"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="E346" s="65"/>
-      <c r="F346" s="64"/>
+      <c r="E346" s="66"/>
+      <c r="F346" s="65"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="E347" s="65"/>
-      <c r="F347" s="64"/>
+      <c r="E347" s="66"/>
+      <c r="F347" s="65"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="E348" s="65"/>
-      <c r="F348" s="64"/>
+      <c r="E348" s="66"/>
+      <c r="F348" s="65"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="E349" s="65"/>
-      <c r="F349" s="64"/>
+      <c r="E349" s="66"/>
+      <c r="F349" s="65"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="E350" s="65"/>
-      <c r="F350" s="64"/>
+      <c r="E350" s="66"/>
+      <c r="F350" s="65"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="E351" s="65"/>
-      <c r="F351" s="64"/>
+      <c r="E351" s="66"/>
+      <c r="F351" s="65"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="E352" s="65"/>
-      <c r="F352" s="64"/>
+      <c r="E352" s="66"/>
+      <c r="F352" s="65"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="E353" s="65"/>
-      <c r="F353" s="64"/>
+      <c r="E353" s="66"/>
+      <c r="F353" s="65"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="E354" s="65"/>
-      <c r="F354" s="64"/>
+      <c r="E354" s="66"/>
+      <c r="F354" s="65"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="E355" s="65"/>
-      <c r="F355" s="64"/>
+      <c r="E355" s="66"/>
+      <c r="F355" s="65"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="E356" s="65"/>
-      <c r="F356" s="64"/>
+      <c r="E356" s="66"/>
+      <c r="F356" s="65"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="E357" s="65"/>
-      <c r="F357" s="64"/>
+      <c r="E357" s="66"/>
+      <c r="F357" s="65"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="E358" s="65"/>
-      <c r="F358" s="64"/>
+      <c r="E358" s="66"/>
+      <c r="F358" s="65"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="E359" s="65"/>
-      <c r="F359" s="64"/>
+      <c r="E359" s="66"/>
+      <c r="F359" s="65"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="E360" s="65"/>
-      <c r="F360" s="64"/>
+      <c r="E360" s="66"/>
+      <c r="F360" s="65"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="E361" s="65"/>
-      <c r="F361" s="64"/>
+      <c r="E361" s="66"/>
+      <c r="F361" s="65"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="E362" s="65"/>
-      <c r="F362" s="64"/>
+      <c r="E362" s="66"/>
+      <c r="F362" s="65"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="E363" s="65"/>
-      <c r="F363" s="64"/>
+      <c r="E363" s="66"/>
+      <c r="F363" s="65"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="E364" s="65"/>
-      <c r="F364" s="64"/>
+      <c r="E364" s="66"/>
+      <c r="F364" s="65"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="E365" s="65"/>
-      <c r="F365" s="64"/>
+      <c r="E365" s="66"/>
+      <c r="F365" s="65"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="E366" s="65"/>
-      <c r="F366" s="64"/>
+      <c r="E366" s="66"/>
+      <c r="F366" s="65"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="E367" s="65"/>
-      <c r="F367" s="64"/>
+      <c r="E367" s="66"/>
+      <c r="F367" s="65"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="E368" s="65"/>
-      <c r="F368" s="64"/>
+      <c r="E368" s="66"/>
+      <c r="F368" s="65"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="E369" s="65"/>
-      <c r="F369" s="64"/>
+      <c r="E369" s="66"/>
+      <c r="F369" s="65"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="E370" s="65"/>
-      <c r="F370" s="64"/>
+      <c r="E370" s="66"/>
+      <c r="F370" s="65"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="E371" s="65"/>
-      <c r="F371" s="64"/>
+      <c r="E371" s="66"/>
+      <c r="F371" s="65"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="E372" s="65"/>
-      <c r="F372" s="64"/>
+      <c r="E372" s="66"/>
+      <c r="F372" s="65"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="E373" s="65"/>
-      <c r="F373" s="64"/>
+      <c r="E373" s="66"/>
+      <c r="F373" s="65"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="E374" s="65"/>
-      <c r="F374" s="64"/>
+      <c r="E374" s="66"/>
+      <c r="F374" s="65"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="E375" s="65"/>
-      <c r="F375" s="64"/>
+      <c r="E375" s="66"/>
+      <c r="F375" s="65"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="E376" s="65"/>
-      <c r="F376" s="64"/>
+      <c r="E376" s="66"/>
+      <c r="F376" s="65"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="E377" s="65"/>
-      <c r="F377" s="64"/>
+      <c r="E377" s="66"/>
+      <c r="F377" s="65"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="E378" s="65"/>
-      <c r="F378" s="64"/>
+      <c r="E378" s="66"/>
+      <c r="F378" s="65"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="E379" s="65"/>
-      <c r="F379" s="64"/>
+      <c r="E379" s="66"/>
+      <c r="F379" s="65"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="E380" s="65"/>
-      <c r="F380" s="64"/>
+      <c r="E380" s="66"/>
+      <c r="F380" s="65"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="E381" s="65"/>
-      <c r="F381" s="64"/>
+      <c r="E381" s="66"/>
+      <c r="F381" s="65"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="E382" s="65"/>
-      <c r="F382" s="64"/>
+      <c r="E382" s="66"/>
+      <c r="F382" s="65"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="E383" s="65"/>
-      <c r="F383" s="64"/>
+      <c r="E383" s="66"/>
+      <c r="F383" s="65"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="E384" s="65"/>
-      <c r="F384" s="64"/>
+      <c r="E384" s="66"/>
+      <c r="F384" s="65"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="E385" s="65"/>
-      <c r="F385" s="64"/>
+      <c r="E385" s="66"/>
+      <c r="F385" s="65"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="E386" s="65"/>
-      <c r="F386" s="64"/>
+      <c r="E386" s="66"/>
+      <c r="F386" s="65"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="E387" s="65"/>
-      <c r="F387" s="64"/>
+      <c r="E387" s="66"/>
+      <c r="F387" s="65"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="E388" s="65"/>
-      <c r="F388" s="64"/>
+      <c r="E388" s="66"/>
+      <c r="F388" s="65"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="E389" s="65"/>
-      <c r="F389" s="64"/>
+      <c r="E389" s="66"/>
+      <c r="F389" s="65"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="E390" s="65"/>
-      <c r="F390" s="64"/>
+      <c r="E390" s="66"/>
+      <c r="F390" s="65"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="E391" s="65"/>
-      <c r="F391" s="64"/>
+      <c r="E391" s="66"/>
+      <c r="F391" s="65"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="E392" s="65"/>
-      <c r="F392" s="64"/>
+      <c r="E392" s="66"/>
+      <c r="F392" s="65"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="E393" s="65"/>
-      <c r="F393" s="64"/>
+      <c r="E393" s="66"/>
+      <c r="F393" s="65"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="E394" s="65"/>
-      <c r="F394" s="64"/>
+      <c r="E394" s="66"/>
+      <c r="F394" s="65"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="E395" s="65"/>
-      <c r="F395" s="64"/>
+      <c r="E395" s="66"/>
+      <c r="F395" s="65"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="E396" s="65"/>
-      <c r="F396" s="64"/>
+      <c r="E396" s="66"/>
+      <c r="F396" s="65"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="E397" s="65"/>
-      <c r="F397" s="64"/>
+      <c r="E397" s="66"/>
+      <c r="F397" s="65"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="E398" s="65"/>
-      <c r="F398" s="64"/>
+      <c r="E398" s="66"/>
+      <c r="F398" s="65"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="E399" s="65"/>
-      <c r="F399" s="64"/>
+      <c r="E399" s="66"/>
+      <c r="F399" s="65"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="E400" s="65"/>
-      <c r="F400" s="64"/>
+      <c r="E400" s="66"/>
+      <c r="F400" s="65"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="E401" s="65"/>
-      <c r="F401" s="64"/>
+      <c r="E401" s="66"/>
+      <c r="F401" s="65"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="E402" s="65"/>
-      <c r="F402" s="64"/>
+      <c r="E402" s="66"/>
+      <c r="F402" s="65"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="E403" s="65"/>
-      <c r="F403" s="64"/>
+      <c r="E403" s="66"/>
+      <c r="F403" s="65"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="E404" s="65"/>
-      <c r="F404" s="64"/>
+      <c r="E404" s="66"/>
+      <c r="F404" s="65"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="E405" s="65"/>
-      <c r="F405" s="64"/>
+      <c r="E405" s="66"/>
+      <c r="F405" s="65"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="E406" s="65"/>
-      <c r="F406" s="64"/>
+      <c r="E406" s="66"/>
+      <c r="F406" s="65"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="E407" s="65"/>
-      <c r="F407" s="64"/>
+      <c r="E407" s="66"/>
+      <c r="F407" s="65"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="E408" s="65"/>
-      <c r="F408" s="64"/>
+      <c r="E408" s="66"/>
+      <c r="F408" s="65"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="E409" s="65"/>
-      <c r="F409" s="64"/>
+      <c r="E409" s="66"/>
+      <c r="F409" s="65"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="E410" s="65"/>
-      <c r="F410" s="64"/>
+      <c r="E410" s="66"/>
+      <c r="F410" s="65"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="E411" s="65"/>
-      <c r="F411" s="64"/>
+      <c r="E411" s="66"/>
+      <c r="F411" s="65"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="E412" s="65"/>
-      <c r="F412" s="64"/>
+      <c r="E412" s="66"/>
+      <c r="F412" s="65"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="E413" s="65"/>
-      <c r="F413" s="64"/>
+      <c r="E413" s="66"/>
+      <c r="F413" s="65"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="C414" s="66"/>
-      <c r="D414" s="66"/>
-      <c r="E414" s="65"/>
-      <c r="F414" s="64"/>
+      <c r="C414" s="67"/>
+      <c r="D414" s="67"/>
+      <c r="E414" s="66"/>
+      <c r="F414" s="65"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="E415" s="65"/>
-      <c r="F415" s="64"/>
+      <c r="E415" s="66"/>
+      <c r="F415" s="65"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="E416" s="65"/>
-      <c r="F416" s="64"/>
+      <c r="E416" s="66"/>
+      <c r="F416" s="65"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="E417" s="61"/>
-      <c r="F417" s="61"/>
-      <c r="G417" s="62"/>
+      <c r="E417" s="62"/>
+      <c r="F417" s="62"/>
+      <c r="G417" s="63"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="E418" s="65"/>
-      <c r="F418" s="64"/>
+      <c r="E418" s="66"/>
+      <c r="F418" s="65"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="E419" s="65"/>
-      <c r="F419" s="64"/>
+      <c r="E419" s="66"/>
+      <c r="F419" s="65"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="E420" s="65"/>
-      <c r="F420" s="64"/>
+      <c r="E420" s="66"/>
+      <c r="F420" s="65"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="E421" s="65"/>
-      <c r="F421" s="64"/>
+      <c r="E421" s="66"/>
+      <c r="F421" s="65"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="E422" s="65"/>
-      <c r="F422" s="64"/>
+      <c r="E422" s="66"/>
+      <c r="F422" s="65"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="E423" s="65"/>
-      <c r="F423" s="64"/>
+      <c r="E423" s="66"/>
+      <c r="F423" s="65"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="E424" s="65"/>
-      <c r="F424" s="64"/>
+      <c r="E424" s="66"/>
+      <c r="F424" s="65"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="E425" s="65"/>
-      <c r="F425" s="64"/>
+      <c r="E425" s="66"/>
+      <c r="F425" s="65"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="E426" s="65"/>
-      <c r="F426" s="64"/>
+      <c r="E426" s="66"/>
+      <c r="F426" s="65"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="E427" s="65"/>
-      <c r="F427" s="64"/>
+      <c r="E427" s="66"/>
+      <c r="F427" s="65"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="E428" s="65"/>
-      <c r="F428" s="64"/>
+      <c r="E428" s="66"/>
+      <c r="F428" s="65"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="E429" s="65"/>
-      <c r="F429" s="64"/>
+      <c r="E429" s="66"/>
+      <c r="F429" s="65"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="E430" s="65"/>
-      <c r="F430" s="64"/>
+      <c r="E430" s="66"/>
+      <c r="F430" s="65"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="E431" s="65"/>
-      <c r="F431" s="64"/>
+      <c r="E431" s="66"/>
+      <c r="F431" s="65"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="E432" s="65"/>
-      <c r="F432" s="64"/>
+      <c r="E432" s="66"/>
+      <c r="F432" s="65"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="E433" s="65"/>
-      <c r="F433" s="64"/>
+      <c r="E433" s="66"/>
+      <c r="F433" s="65"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="E434" s="65"/>
-      <c r="F434" s="64"/>
+      <c r="E434" s="66"/>
+      <c r="F434" s="65"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="E435" s="65"/>
-      <c r="F435" s="64"/>
+      <c r="E435" s="66"/>
+      <c r="F435" s="65"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="E436" s="65"/>
-      <c r="F436" s="64"/>
+      <c r="E436" s="66"/>
+      <c r="F436" s="65"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="E437" s="65"/>
-      <c r="F437" s="64"/>
+      <c r="E437" s="66"/>
+      <c r="F437" s="65"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="E438" s="65"/>
-      <c r="F438" s="64"/>
+      <c r="E438" s="66"/>
+      <c r="F438" s="65"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="E439" s="65"/>
-      <c r="F439" s="64"/>
+      <c r="E439" s="66"/>
+      <c r="F439" s="65"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="E440" s="65"/>
-      <c r="F440" s="64"/>
+      <c r="E440" s="66"/>
+      <c r="F440" s="65"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="E441" s="65"/>
-      <c r="F441" s="64"/>
+      <c r="E441" s="66"/>
+      <c r="F441" s="65"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="E442" s="65"/>
-      <c r="F442" s="64"/>
+      <c r="E442" s="66"/>
+      <c r="F442" s="65"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="E443" s="65"/>
-      <c r="F443" s="64"/>
+      <c r="E443" s="66"/>
+      <c r="F443" s="65"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="E444" s="65"/>
-      <c r="F444" s="64"/>
+      <c r="E444" s="66"/>
+      <c r="F444" s="65"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="E445" s="65"/>
-      <c r="F445" s="64"/>
+      <c r="E445" s="66"/>
+      <c r="F445" s="65"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="E446" s="65"/>
-      <c r="F446" s="64"/>
+      <c r="E446" s="66"/>
+      <c r="F446" s="65"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="E447" s="65"/>
-      <c r="F447" s="64"/>
+      <c r="E447" s="66"/>
+      <c r="F447" s="65"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="E448" s="65"/>
-      <c r="F448" s="64"/>
+      <c r="E448" s="66"/>
+      <c r="F448" s="65"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="E449" s="65"/>
-      <c r="F449" s="64"/>
+      <c r="E449" s="66"/>
+      <c r="F449" s="65"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="E450" s="65"/>
-      <c r="F450" s="64"/>
+      <c r="E450" s="66"/>
+      <c r="F450" s="65"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="E451" s="65"/>
-      <c r="F451" s="64"/>
+      <c r="E451" s="66"/>
+      <c r="F451" s="65"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="E452" s="65"/>
-      <c r="F452" s="64"/>
+      <c r="E452" s="66"/>
+      <c r="F452" s="65"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="E453" s="65"/>
-      <c r="F453" s="64"/>
+      <c r="E453" s="66"/>
+      <c r="F453" s="65"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="E454" s="65"/>
-      <c r="F454" s="64"/>
+      <c r="E454" s="66"/>
+      <c r="F454" s="65"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="E455" s="65"/>
-      <c r="F455" s="64"/>
+      <c r="E455" s="66"/>
+      <c r="F455" s="65"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="E456" s="65"/>
-      <c r="F456" s="64"/>
+      <c r="E456" s="66"/>
+      <c r="F456" s="65"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="E457" s="65"/>
-      <c r="F457" s="64"/>
+      <c r="E457" s="66"/>
+      <c r="F457" s="65"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="E458" s="65"/>
-      <c r="F458" s="64"/>
+      <c r="E458" s="66"/>
+      <c r="F458" s="65"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="E459" s="65"/>
-      <c r="F459" s="64"/>
+      <c r="E459" s="66"/>
+      <c r="F459" s="65"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="E460" s="65"/>
-      <c r="F460" s="64"/>
+      <c r="E460" s="66"/>
+      <c r="F460" s="65"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="E461" s="65"/>
-      <c r="F461" s="64"/>
+      <c r="E461" s="66"/>
+      <c r="F461" s="65"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="E462" s="65"/>
-      <c r="F462" s="64"/>
+      <c r="E462" s="66"/>
+      <c r="F462" s="65"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="E463" s="65"/>
-      <c r="F463" s="64"/>
+      <c r="E463" s="66"/>
+      <c r="F463" s="65"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="E464" s="65"/>
-      <c r="F464" s="64"/>
+      <c r="E464" s="66"/>
+      <c r="F464" s="65"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="E465" s="65"/>
-      <c r="F465" s="64"/>
+      <c r="E465" s="66"/>
+      <c r="F465" s="65"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="E466" s="65"/>
-      <c r="F466" s="64"/>
+      <c r="E466" s="66"/>
+      <c r="F466" s="65"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="E467" s="65"/>
-      <c r="F467" s="64"/>
+      <c r="E467" s="66"/>
+      <c r="F467" s="65"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="E468" s="65"/>
-      <c r="F468" s="64"/>
+      <c r="E468" s="66"/>
+      <c r="F468" s="65"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="E469" s="65"/>
-      <c r="F469" s="64"/>
+      <c r="E469" s="66"/>
+      <c r="F469" s="65"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="E470" s="65"/>
-      <c r="F470" s="64"/>
+      <c r="E470" s="66"/>
+      <c r="F470" s="65"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="E471" s="65"/>
-      <c r="F471" s="64"/>
+      <c r="E471" s="66"/>
+      <c r="F471" s="65"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="E472" s="65"/>
-      <c r="F472" s="64"/>
+      <c r="E472" s="66"/>
+      <c r="F472" s="65"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="E473" s="65"/>
-      <c r="F473" s="64"/>
+      <c r="E473" s="66"/>
+      <c r="F473" s="65"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="E474" s="65"/>
-      <c r="F474" s="64"/>
+      <c r="E474" s="66"/>
+      <c r="F474" s="65"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="E475" s="65"/>
-      <c r="F475" s="64"/>
+      <c r="E475" s="66"/>
+      <c r="F475" s="65"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="E476" s="65"/>
-      <c r="F476" s="64"/>
+      <c r="E476" s="66"/>
+      <c r="F476" s="65"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="E477" s="65"/>
-      <c r="F477" s="64"/>
+      <c r="E477" s="66"/>
+      <c r="F477" s="65"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="E478" s="65"/>
-      <c r="F478" s="64"/>
+      <c r="E478" s="66"/>
+      <c r="F478" s="65"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="E479" s="65"/>
-      <c r="F479" s="64"/>
+      <c r="E479" s="66"/>
+      <c r="F479" s="65"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="E480" s="65"/>
-      <c r="F480" s="64"/>
+      <c r="E480" s="66"/>
+      <c r="F480" s="65"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="E481" s="65"/>
-      <c r="F481" s="64"/>
+      <c r="E481" s="66"/>
+      <c r="F481" s="65"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="E482" s="65"/>
-      <c r="F482" s="64"/>
+      <c r="E482" s="66"/>
+      <c r="F482" s="65"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="E483" s="65"/>
-      <c r="F483" s="64"/>
+      <c r="E483" s="66"/>
+      <c r="F483" s="65"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="E484" s="65"/>
-      <c r="F484" s="64"/>
+      <c r="E484" s="66"/>
+      <c r="F484" s="65"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="E485" s="65"/>
-      <c r="F485" s="64"/>
+      <c r="E485" s="66"/>
+      <c r="F485" s="65"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="E486" s="65"/>
-      <c r="F486" s="64"/>
+      <c r="E486" s="66"/>
+      <c r="F486" s="65"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="E487" s="65"/>
-      <c r="F487" s="64"/>
+      <c r="E487" s="66"/>
+      <c r="F487" s="65"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="E488" s="65"/>
-      <c r="F488" s="64"/>
+      <c r="E488" s="66"/>
+      <c r="F488" s="65"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="E489" s="65"/>
-      <c r="F489" s="64"/>
+      <c r="E489" s="66"/>
+      <c r="F489" s="65"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="E490" s="65"/>
-      <c r="F490" s="64"/>
+      <c r="E490" s="66"/>
+      <c r="F490" s="65"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="E491" s="65"/>
-      <c r="F491" s="64"/>
+      <c r="E491" s="66"/>
+      <c r="F491" s="65"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="E492" s="65"/>
-      <c r="F492" s="64"/>
+      <c r="E492" s="66"/>
+      <c r="F492" s="65"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="E493" s="65"/>
-      <c r="F493" s="64"/>
+      <c r="E493" s="66"/>
+      <c r="F493" s="65"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="E494" s="65"/>
-      <c r="F494" s="64"/>
+      <c r="E494" s="66"/>
+      <c r="F494" s="65"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="E495" s="65"/>
-      <c r="F495" s="64"/>
+      <c r="E495" s="66"/>
+      <c r="F495" s="65"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="E496" s="65"/>
-      <c r="F496" s="64"/>
+      <c r="E496" s="66"/>
+      <c r="F496" s="65"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="E497" s="65"/>
-      <c r="F497" s="64"/>
+      <c r="E497" s="66"/>
+      <c r="F497" s="65"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="E498" s="65"/>
-      <c r="F498" s="64"/>
+      <c r="E498" s="66"/>
+      <c r="F498" s="65"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="E499" s="65"/>
-      <c r="F499" s="64"/>
+      <c r="E499" s="66"/>
+      <c r="F499" s="65"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="E500" s="65"/>
-      <c r="F500" s="64"/>
+      <c r="E500" s="66"/>
+      <c r="F500" s="65"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="E501" s="65"/>
-      <c r="F501" s="64"/>
+      <c r="E501" s="66"/>
+      <c r="F501" s="65"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="E502" s="65"/>
-      <c r="F502" s="64"/>
+      <c r="E502" s="66"/>
+      <c r="F502" s="65"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="E503" s="65"/>
-      <c r="F503" s="64"/>
+      <c r="E503" s="66"/>
+      <c r="F503" s="65"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="E504" s="65"/>
-      <c r="F504" s="64"/>
+      <c r="E504" s="66"/>
+      <c r="F504" s="65"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="E505" s="65"/>
-      <c r="F505" s="64"/>
+      <c r="E505" s="66"/>
+      <c r="F505" s="65"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="E506" s="65"/>
-      <c r="F506" s="64"/>
+      <c r="E506" s="66"/>
+      <c r="F506" s="65"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="E507" s="65"/>
-      <c r="F507" s="64"/>
+      <c r="E507" s="66"/>
+      <c r="F507" s="65"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="E508" s="65"/>
-      <c r="F508" s="64"/>
+      <c r="E508" s="66"/>
+      <c r="F508" s="65"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="E509" s="65"/>
-      <c r="F509" s="64"/>
+      <c r="E509" s="66"/>
+      <c r="F509" s="65"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="E510" s="65"/>
-      <c r="F510" s="64"/>
+      <c r="E510" s="66"/>
+      <c r="F510" s="65"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="E511" s="65"/>
-      <c r="F511" s="64"/>
+      <c r="E511" s="66"/>
+      <c r="F511" s="65"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="E512" s="65"/>
-      <c r="F512" s="64"/>
+      <c r="E512" s="66"/>
+      <c r="F512" s="65"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="E513" s="65"/>
-      <c r="F513" s="64"/>
+      <c r="E513" s="66"/>
+      <c r="F513" s="65"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="E514" s="65"/>
-      <c r="F514" s="64"/>
+      <c r="E514" s="66"/>
+      <c r="F514" s="65"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="E515" s="65"/>
-      <c r="F515" s="64"/>
+      <c r="E515" s="66"/>
+      <c r="F515" s="65"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="E516" s="65"/>
-      <c r="F516" s="64"/>
+      <c r="E516" s="66"/>
+      <c r="F516" s="65"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="E517" s="65"/>
-      <c r="F517" s="64"/>
+      <c r="E517" s="66"/>
+      <c r="F517" s="65"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="E518" s="65"/>
-      <c r="F518" s="64"/>
+      <c r="E518" s="66"/>
+      <c r="F518" s="65"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="E519" s="65"/>
-      <c r="F519" s="64"/>
+      <c r="E519" s="66"/>
+      <c r="F519" s="65"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="E520" s="65"/>
-      <c r="F520" s="64"/>
+      <c r="E520" s="66"/>
+      <c r="F520" s="65"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="E521" s="65"/>
-      <c r="F521" s="64"/>
+      <c r="E521" s="66"/>
+      <c r="F521" s="65"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="E522" s="65"/>
-      <c r="F522" s="64"/>
+      <c r="E522" s="66"/>
+      <c r="F522" s="65"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="E523" s="65"/>
-      <c r="F523" s="64"/>
+      <c r="E523" s="66"/>
+      <c r="F523" s="65"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="E524" s="65"/>
-      <c r="F524" s="64"/>
+      <c r="E524" s="66"/>
+      <c r="F524" s="65"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="E525" s="65"/>
-      <c r="F525" s="64"/>
+      <c r="E525" s="66"/>
+      <c r="F525" s="65"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="E526" s="65"/>
-      <c r="F526" s="64"/>
+      <c r="E526" s="66"/>
+      <c r="F526" s="65"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="E527" s="65"/>
-      <c r="F527" s="64"/>
+      <c r="E527" s="66"/>
+      <c r="F527" s="65"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="E528" s="65"/>
-      <c r="F528" s="64"/>
+      <c r="E528" s="66"/>
+      <c r="F528" s="65"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="E529" s="65"/>
-      <c r="F529" s="64"/>
+      <c r="E529" s="66"/>
+      <c r="F529" s="65"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="E530" s="65"/>
-      <c r="F530" s="64"/>
+      <c r="E530" s="66"/>
+      <c r="F530" s="65"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="E531" s="65"/>
-      <c r="F531" s="64"/>
+      <c r="E531" s="66"/>
+      <c r="F531" s="65"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="E532" s="65"/>
-      <c r="F532" s="64"/>
+      <c r="E532" s="66"/>
+      <c r="F532" s="65"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="E533" s="65"/>
-      <c r="F533" s="64"/>
+      <c r="E533" s="66"/>
+      <c r="F533" s="65"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="E534" s="65"/>
-      <c r="F534" s="64"/>
+      <c r="E534" s="66"/>
+      <c r="F534" s="65"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="E535" s="65"/>
-      <c r="F535" s="64"/>
+      <c r="E535" s="66"/>
+      <c r="F535" s="65"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="E536" s="65"/>
-      <c r="F536" s="64"/>
+      <c r="E536" s="66"/>
+      <c r="F536" s="65"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="E537" s="65"/>
-      <c r="F537" s="64"/>
+      <c r="E537" s="66"/>
+      <c r="F537" s="65"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="E538" s="65"/>
-      <c r="F538" s="64"/>
+      <c r="E538" s="66"/>
+      <c r="F538" s="65"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="E539" s="65"/>
-      <c r="F539" s="64"/>
+      <c r="E539" s="66"/>
+      <c r="F539" s="65"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="E540" s="65"/>
-      <c r="F540" s="64"/>
+      <c r="E540" s="66"/>
+      <c r="F540" s="65"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="E541" s="65"/>
-      <c r="F541" s="64"/>
+      <c r="E541" s="66"/>
+      <c r="F541" s="65"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="E542" s="65"/>
-      <c r="F542" s="64"/>
+      <c r="E542" s="66"/>
+      <c r="F542" s="65"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="E543" s="65"/>
-      <c r="F543" s="64"/>
+      <c r="E543" s="66"/>
+      <c r="F543" s="65"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="E544" s="65"/>
-      <c r="F544" s="64"/>
+      <c r="E544" s="66"/>
+      <c r="F544" s="65"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="E545" s="65"/>
-      <c r="F545" s="64"/>
+      <c r="E545" s="66"/>
+      <c r="F545" s="65"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="E546" s="65"/>
-      <c r="F546" s="64"/>
+      <c r="E546" s="66"/>
+      <c r="F546" s="65"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="E547" s="65"/>
-      <c r="F547" s="64"/>
+      <c r="E547" s="66"/>
+      <c r="F547" s="65"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="E548" s="65"/>
-      <c r="F548" s="64"/>
+      <c r="E548" s="66"/>
+      <c r="F548" s="65"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="E549" s="65"/>
-      <c r="F549" s="64"/>
+      <c r="E549" s="66"/>
+      <c r="F549" s="65"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="E550" s="65"/>
-      <c r="F550" s="64"/>
+      <c r="E550" s="66"/>
+      <c r="F550" s="65"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="E551" s="65"/>
-      <c r="F551" s="64"/>
+      <c r="E551" s="66"/>
+      <c r="F551" s="65"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="E552" s="65"/>
-      <c r="F552" s="64"/>
+      <c r="E552" s="66"/>
+      <c r="F552" s="65"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="E553" s="65"/>
-      <c r="F553" s="64"/>
+      <c r="E553" s="66"/>
+      <c r="F553" s="65"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="E554" s="65"/>
-      <c r="F554" s="64"/>
+      <c r="E554" s="66"/>
+      <c r="F554" s="65"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="E555" s="65"/>
-      <c r="F555" s="64"/>
+      <c r="E555" s="66"/>
+      <c r="F555" s="65"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="E556" s="65"/>
-      <c r="F556" s="64"/>
+      <c r="E556" s="66"/>
+      <c r="F556" s="65"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="E557" s="65"/>
-      <c r="F557" s="64"/>
+      <c r="E557" s="66"/>
+      <c r="F557" s="65"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="E558" s="65"/>
-      <c r="F558" s="64"/>
+      <c r="E558" s="66"/>
+      <c r="F558" s="65"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="E559" s="65"/>
-      <c r="F559" s="64"/>
+      <c r="E559" s="66"/>
+      <c r="F559" s="65"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="E560" s="65"/>
-      <c r="F560" s="64"/>
+      <c r="E560" s="66"/>
+      <c r="F560" s="65"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="E561" s="65"/>
-      <c r="F561" s="64"/>
+      <c r="E561" s="66"/>
+      <c r="F561" s="65"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="E562" s="65"/>
-      <c r="F562" s="64"/>
+      <c r="E562" s="66"/>
+      <c r="F562" s="65"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="E563" s="65"/>
-      <c r="F563" s="64"/>
+      <c r="E563" s="66"/>
+      <c r="F563" s="65"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="E564" s="65"/>
-      <c r="F564" s="64"/>
+      <c r="E564" s="66"/>
+      <c r="F564" s="65"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="E565" s="65"/>
-      <c r="F565" s="64"/>
+      <c r="E565" s="66"/>
+      <c r="F565" s="65"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="E566" s="65"/>
-      <c r="F566" s="64"/>
+      <c r="E566" s="66"/>
+      <c r="F566" s="65"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="E567" s="65"/>
-      <c r="F567" s="64"/>
+      <c r="E567" s="66"/>
+      <c r="F567" s="65"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="E568" s="65"/>
-      <c r="F568" s="64"/>
+      <c r="E568" s="66"/>
+      <c r="F568" s="65"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="E569" s="65"/>
-      <c r="F569" s="64"/>
+      <c r="E569" s="66"/>
+      <c r="F569" s="65"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="E570" s="65"/>
-      <c r="F570" s="64"/>
+      <c r="E570" s="66"/>
+      <c r="F570" s="65"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="E571" s="65"/>
-      <c r="F571" s="64"/>
+      <c r="E571" s="66"/>
+      <c r="F571" s="65"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="E572" s="65"/>
-      <c r="F572" s="64"/>
+      <c r="E572" s="66"/>
+      <c r="F572" s="65"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="E573" s="65"/>
-      <c r="F573" s="64"/>
+      <c r="E573" s="66"/>
+      <c r="F573" s="65"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="E574" s="65"/>
-      <c r="F574" s="64"/>
+      <c r="E574" s="66"/>
+      <c r="F574" s="65"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="E575" s="65"/>
-      <c r="F575" s="64"/>
+      <c r="E575" s="66"/>
+      <c r="F575" s="65"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="E576" s="65"/>
-      <c r="F576" s="64"/>
+      <c r="E576" s="66"/>
+      <c r="F576" s="65"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="E577" s="65"/>
-      <c r="F577" s="64"/>
+      <c r="E577" s="66"/>
+      <c r="F577" s="65"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="E578" s="65"/>
-      <c r="F578" s="64"/>
+      <c r="E578" s="66"/>
+      <c r="F578" s="65"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="E579" s="65"/>
-      <c r="F579" s="64"/>
+      <c r="E579" s="66"/>
+      <c r="F579" s="65"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="E580" s="65"/>
-      <c r="F580" s="64"/>
+      <c r="E580" s="66"/>
+      <c r="F580" s="65"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="E581" s="65"/>
-      <c r="F581" s="64"/>
+      <c r="E581" s="66"/>
+      <c r="F581" s="65"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="E582" s="65"/>
-      <c r="F582" s="64"/>
+      <c r="E582" s="66"/>
+      <c r="F582" s="65"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="E583" s="65"/>
-      <c r="F583" s="64"/>
+      <c r="E583" s="66"/>
+      <c r="F583" s="65"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="E584" s="65"/>
-      <c r="F584" s="64"/>
+      <c r="E584" s="66"/>
+      <c r="F584" s="65"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="E585" s="65"/>
-      <c r="F585" s="64"/>
+      <c r="E585" s="66"/>
+      <c r="F585" s="65"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="E586" s="65"/>
-      <c r="F586" s="64"/>
+      <c r="E586" s="66"/>
+      <c r="F586" s="65"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="E587" s="65"/>
-      <c r="F587" s="64"/>
+      <c r="E587" s="66"/>
+      <c r="F587" s="65"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="E588" s="65"/>
-      <c r="F588" s="64"/>
+      <c r="E588" s="66"/>
+      <c r="F588" s="65"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="E589" s="65"/>
-      <c r="F589" s="64"/>
+      <c r="E589" s="66"/>
+      <c r="F589" s="65"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="E590" s="65"/>
-      <c r="F590" s="64"/>
+      <c r="E590" s="66"/>
+      <c r="F590" s="65"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="E591" s="65"/>
-      <c r="F591" s="64"/>
+      <c r="E591" s="66"/>
+      <c r="F591" s="65"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="E592" s="65"/>
-      <c r="F592" s="64"/>
+      <c r="E592" s="66"/>
+      <c r="F592" s="65"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="E593" s="65"/>
-      <c r="F593" s="64"/>
+      <c r="E593" s="66"/>
+      <c r="F593" s="65"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="E594" s="65"/>
-      <c r="F594" s="64"/>
+      <c r="E594" s="66"/>
+      <c r="F594" s="65"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="E595" s="65"/>
-      <c r="F595" s="64"/>
+      <c r="E595" s="66"/>
+      <c r="F595" s="65"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="E596" s="65"/>
-      <c r="F596" s="64"/>
+      <c r="E596" s="66"/>
+      <c r="F596" s="65"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="E597" s="65"/>
-      <c r="F597" s="64"/>
+      <c r="E597" s="66"/>
+      <c r="F597" s="65"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="E598" s="65"/>
-      <c r="F598" s="64"/>
+      <c r="E598" s="66"/>
+      <c r="F598" s="65"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="E599" s="65"/>
-      <c r="F599" s="64"/>
+      <c r="E599" s="66"/>
+      <c r="F599" s="65"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="E600" s="65"/>
-      <c r="F600" s="64"/>
+      <c r="E600" s="66"/>
+      <c r="F600" s="65"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="E601" s="65"/>
-      <c r="F601" s="64"/>
+      <c r="E601" s="66"/>
+      <c r="F601" s="65"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="E602" s="65"/>
-      <c r="F602" s="64"/>
+      <c r="E602" s="66"/>
+      <c r="F602" s="65"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="E603" s="65"/>
-      <c r="F603" s="64"/>
+      <c r="E603" s="66"/>
+      <c r="F603" s="65"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="E604" s="65"/>
-      <c r="F604" s="64"/>
+      <c r="E604" s="66"/>
+      <c r="F604" s="65"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="E605" s="65"/>
-      <c r="F605" s="64"/>
+      <c r="E605" s="66"/>
+      <c r="F605" s="65"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="E606" s="65"/>
-      <c r="F606" s="64"/>
+      <c r="E606" s="66"/>
+      <c r="F606" s="65"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="E607" s="65"/>
-      <c r="F607" s="64"/>
+      <c r="E607" s="66"/>
+      <c r="F607" s="65"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="E608" s="65"/>
-      <c r="F608" s="64"/>
+      <c r="E608" s="66"/>
+      <c r="F608" s="65"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="E609" s="65"/>
-      <c r="F609" s="64"/>
+      <c r="E609" s="66"/>
+      <c r="F609" s="65"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="E610" s="65"/>
-      <c r="F610" s="64"/>
+      <c r="E610" s="66"/>
+      <c r="F610" s="65"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="E611" s="65"/>
-      <c r="F611" s="64"/>
+      <c r="E611" s="66"/>
+      <c r="F611" s="65"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="E612" s="65"/>
-      <c r="F612" s="64"/>
+      <c r="E612" s="66"/>
+      <c r="F612" s="65"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="E613" s="65"/>
-      <c r="F613" s="64"/>
+      <c r="E613" s="66"/>
+      <c r="F613" s="65"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="E614" s="65"/>
-      <c r="F614" s="64"/>
+      <c r="E614" s="66"/>
+      <c r="F614" s="65"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="E615" s="65"/>
-      <c r="F615" s="64"/>
+      <c r="E615" s="66"/>
+      <c r="F615" s="65"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="E616" s="65"/>
-      <c r="F616" s="64"/>
+      <c r="E616" s="66"/>
+      <c r="F616" s="65"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="E617" s="65"/>
-      <c r="F617" s="64"/>
+      <c r="E617" s="66"/>
+      <c r="F617" s="65"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="E618" s="65"/>
-      <c r="F618" s="64"/>
+      <c r="E618" s="66"/>
+      <c r="F618" s="65"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="E619" s="65"/>
-      <c r="F619" s="64"/>
+      <c r="E619" s="66"/>
+      <c r="F619" s="65"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="E620" s="65"/>
-      <c r="F620" s="64"/>
+      <c r="E620" s="66"/>
+      <c r="F620" s="65"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="E621" s="65"/>
-      <c r="F621" s="64"/>
+      <c r="E621" s="66"/>
+      <c r="F621" s="65"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="E622" s="65"/>
-      <c r="F622" s="64"/>
+      <c r="E622" s="66"/>
+      <c r="F622" s="65"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="E623" s="65"/>
-      <c r="F623" s="64"/>
+      <c r="E623" s="66"/>
+      <c r="F623" s="65"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="E624" s="65"/>
-      <c r="F624" s="64"/>
+      <c r="E624" s="66"/>
+      <c r="F624" s="65"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="E625" s="65"/>
-      <c r="F625" s="64"/>
+      <c r="E625" s="66"/>
+      <c r="F625" s="65"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="E626" s="65"/>
-      <c r="F626" s="64"/>
+      <c r="E626" s="66"/>
+      <c r="F626" s="65"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="E627" s="65"/>
-      <c r="F627" s="64"/>
+      <c r="E627" s="66"/>
+      <c r="F627" s="65"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="E628" s="65"/>
-      <c r="F628" s="64"/>
+      <c r="E628" s="66"/>
+      <c r="F628" s="65"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="E629" s="65"/>
-      <c r="F629" s="64"/>
+      <c r="E629" s="66"/>
+      <c r="F629" s="65"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="E630" s="65"/>
-      <c r="F630" s="64"/>
+      <c r="E630" s="66"/>
+      <c r="F630" s="65"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="E631" s="65"/>
-      <c r="F631" s="64"/>
+      <c r="E631" s="66"/>
+      <c r="F631" s="65"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="E632" s="65"/>
-      <c r="F632" s="64"/>
+      <c r="E632" s="66"/>
+      <c r="F632" s="65"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="E633" s="65"/>
-      <c r="F633" s="64"/>
+      <c r="E633" s="66"/>
+      <c r="F633" s="65"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="E634" s="65"/>
-      <c r="F634" s="64"/>
+      <c r="E634" s="66"/>
+      <c r="F634" s="65"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="E635" s="65"/>
-      <c r="F635" s="64"/>
+      <c r="E635" s="66"/>
+      <c r="F635" s="65"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="E636" s="65"/>
-      <c r="F636" s="64"/>
+      <c r="E636" s="66"/>
+      <c r="F636" s="65"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="E637" s="65"/>
-      <c r="F637" s="64"/>
+      <c r="E637" s="66"/>
+      <c r="F637" s="65"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="E638" s="65"/>
-      <c r="F638" s="64"/>
+      <c r="E638" s="66"/>
+      <c r="F638" s="65"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="E639" s="65"/>
-      <c r="F639" s="64"/>
+      <c r="E639" s="66"/>
+      <c r="F639" s="65"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="E640" s="65"/>
-      <c r="F640" s="64"/>
+      <c r="E640" s="66"/>
+      <c r="F640" s="65"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="E641" s="65"/>
-      <c r="F641" s="64"/>
+      <c r="E641" s="66"/>
+      <c r="F641" s="65"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="E642" s="65"/>
-      <c r="F642" s="64"/>
+      <c r="E642" s="66"/>
+      <c r="F642" s="65"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="E643" s="65"/>
-      <c r="F643" s="64"/>
+      <c r="E643" s="66"/>
+      <c r="F643" s="65"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="E644" s="65"/>
-      <c r="F644" s="64"/>
+      <c r="E644" s="66"/>
+      <c r="F644" s="65"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="E645" s="65"/>
-      <c r="F645" s="64"/>
+      <c r="E645" s="66"/>
+      <c r="F645" s="65"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="E646" s="65"/>
-      <c r="F646" s="64"/>
+      <c r="E646" s="66"/>
+      <c r="F646" s="65"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="E647" s="65"/>
-      <c r="F647" s="64"/>
+      <c r="E647" s="66"/>
+      <c r="F647" s="65"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="E648" s="65"/>
-      <c r="F648" s="64"/>
+      <c r="E648" s="66"/>
+      <c r="F648" s="65"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="E649" s="65"/>
-      <c r="F649" s="64"/>
+      <c r="E649" s="66"/>
+      <c r="F649" s="65"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="E650" s="65"/>
-      <c r="F650" s="64"/>
+      <c r="E650" s="66"/>
+      <c r="F650" s="65"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="E651" s="65"/>
-      <c r="F651" s="64"/>
+      <c r="E651" s="66"/>
+      <c r="F651" s="65"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="E652" s="65"/>
-      <c r="F652" s="64"/>
+      <c r="E652" s="66"/>
+      <c r="F652" s="65"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="E653" s="65"/>
-      <c r="F653" s="64"/>
+      <c r="E653" s="66"/>
+      <c r="F653" s="65"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="E654" s="65"/>
-      <c r="F654" s="64"/>
+      <c r="E654" s="66"/>
+      <c r="F654" s="65"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="E655" s="65"/>
-      <c r="F655" s="64"/>
+      <c r="E655" s="66"/>
+      <c r="F655" s="65"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="E656" s="65"/>
-      <c r="F656" s="64"/>
+      <c r="E656" s="66"/>
+      <c r="F656" s="65"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="E657" s="65"/>
-      <c r="F657" s="64"/>
+      <c r="E657" s="66"/>
+      <c r="F657" s="65"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="E658" s="65"/>
-      <c r="F658" s="64"/>
+      <c r="E658" s="66"/>
+      <c r="F658" s="65"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="E659" s="65"/>
-      <c r="F659" s="64"/>
+      <c r="E659" s="66"/>
+      <c r="F659" s="65"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="E660" s="65"/>
-      <c r="F660" s="64"/>
+      <c r="E660" s="66"/>
+      <c r="F660" s="65"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="E661" s="65"/>
-      <c r="F661" s="64"/>
+      <c r="E661" s="66"/>
+      <c r="F661" s="65"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="E662" s="65"/>
-      <c r="F662" s="64"/>
+      <c r="E662" s="66"/>
+      <c r="F662" s="65"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="E663" s="65"/>
-      <c r="F663" s="64"/>
+      <c r="E663" s="66"/>
+      <c r="F663" s="65"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="E664" s="65"/>
-      <c r="F664" s="64"/>
+      <c r="E664" s="66"/>
+      <c r="F664" s="65"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="E665" s="65"/>
-      <c r="F665" s="64"/>
+      <c r="E665" s="66"/>
+      <c r="F665" s="65"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="E666" s="65"/>
-      <c r="F666" s="64"/>
+      <c r="E666" s="66"/>
+      <c r="F666" s="65"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="E667" s="65"/>
-      <c r="F667" s="64"/>
+      <c r="E667" s="66"/>
+      <c r="F667" s="65"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="E668" s="65"/>
-      <c r="F668" s="64"/>
+      <c r="E668" s="66"/>
+      <c r="F668" s="65"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="E669" s="65"/>
-      <c r="F669" s="64"/>
+      <c r="E669" s="66"/>
+      <c r="F669" s="65"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="E670" s="65"/>
-      <c r="F670" s="64"/>
+      <c r="E670" s="66"/>
+      <c r="F670" s="65"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="E671" s="65"/>
-      <c r="F671" s="64"/>
+      <c r="E671" s="66"/>
+      <c r="F671" s="65"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="E672" s="65"/>
-      <c r="F672" s="64"/>
+      <c r="E672" s="66"/>
+      <c r="F672" s="65"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="E673" s="65"/>
-      <c r="F673" s="64"/>
+      <c r="E673" s="66"/>
+      <c r="F673" s="65"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="E674" s="65"/>
-      <c r="F674" s="64"/>
+      <c r="E674" s="66"/>
+      <c r="F674" s="65"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="E675" s="65"/>
-      <c r="F675" s="64"/>
+      <c r="E675" s="66"/>
+      <c r="F675" s="65"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="E676" s="65"/>
-      <c r="F676" s="64"/>
+      <c r="E676" s="66"/>
+      <c r="F676" s="65"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="E677" s="65"/>
-      <c r="F677" s="64"/>
+      <c r="E677" s="66"/>
+      <c r="F677" s="65"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="E678" s="65"/>
-      <c r="F678" s="64"/>
+      <c r="E678" s="66"/>
+      <c r="F678" s="65"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="E679" s="65"/>
-      <c r="F679" s="64"/>
+      <c r="E679" s="66"/>
+      <c r="F679" s="65"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="E680" s="65"/>
-      <c r="F680" s="64"/>
+      <c r="E680" s="66"/>
+      <c r="F680" s="65"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="E681" s="65"/>
-      <c r="F681" s="64"/>
+      <c r="E681" s="66"/>
+      <c r="F681" s="65"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="E682" s="65"/>
-      <c r="F682" s="64"/>
+      <c r="E682" s="66"/>
+      <c r="F682" s="65"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="E683" s="65"/>
-      <c r="F683" s="64"/>
+      <c r="E683" s="66"/>
+      <c r="F683" s="65"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="E684" s="65"/>
-      <c r="F684" s="64"/>
+      <c r="E684" s="66"/>
+      <c r="F684" s="65"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="E685" s="65"/>
-      <c r="F685" s="64"/>
+      <c r="E685" s="66"/>
+      <c r="F685" s="65"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="E686" s="65"/>
-      <c r="F686" s="64"/>
+      <c r="E686" s="66"/>
+      <c r="F686" s="65"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="E687" s="65"/>
-      <c r="F687" s="64"/>
+      <c r="E687" s="66"/>
+      <c r="F687" s="65"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="E688" s="65"/>
-      <c r="F688" s="64"/>
+      <c r="E688" s="66"/>
+      <c r="F688" s="65"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="E689" s="65"/>
-      <c r="F689" s="64"/>
+      <c r="E689" s="66"/>
+      <c r="F689" s="65"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="E690" s="65"/>
-      <c r="F690" s="64"/>
+      <c r="E690" s="66"/>
+      <c r="F690" s="65"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="E691" s="65"/>
-      <c r="F691" s="64"/>
+      <c r="E691" s="66"/>
+      <c r="F691" s="65"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="E692" s="65"/>
-      <c r="F692" s="64"/>
+      <c r="E692" s="66"/>
+      <c r="F692" s="65"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="E693" s="65"/>
-      <c r="F693" s="64"/>
+      <c r="E693" s="66"/>
+      <c r="F693" s="65"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="E694" s="65"/>
-      <c r="F694" s="64"/>
+      <c r="E694" s="66"/>
+      <c r="F694" s="65"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="E695" s="65"/>
-      <c r="F695" s="64"/>
+      <c r="E695" s="66"/>
+      <c r="F695" s="65"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="E696" s="65"/>
-      <c r="F696" s="64"/>
+      <c r="E696" s="66"/>
+      <c r="F696" s="65"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="E697" s="65"/>
-      <c r="F697" s="64"/>
+      <c r="E697" s="66"/>
+      <c r="F697" s="65"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="E698" s="65"/>
-      <c r="F698" s="64"/>
+      <c r="E698" s="66"/>
+      <c r="F698" s="65"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="E699" s="65"/>
-      <c r="F699" s="64"/>
+      <c r="E699" s="66"/>
+      <c r="F699" s="65"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="E700" s="65"/>
-      <c r="F700" s="64"/>
+      <c r="E700" s="66"/>
+      <c r="F700" s="65"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="E701" s="65"/>
-      <c r="F701" s="64"/>
+      <c r="E701" s="66"/>
+      <c r="F701" s="65"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="E702" s="65"/>
-      <c r="F702" s="64"/>
+      <c r="E702" s="66"/>
+      <c r="F702" s="65"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="E703" s="65"/>
-      <c r="F703" s="64"/>
+      <c r="E703" s="66"/>
+      <c r="F703" s="65"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="E704" s="65"/>
-      <c r="F704" s="64"/>
+      <c r="E704" s="66"/>
+      <c r="F704" s="65"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="E705" s="65"/>
-      <c r="F705" s="64"/>
+      <c r="E705" s="66"/>
+      <c r="F705" s="65"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="E706" s="65"/>
-      <c r="F706" s="64"/>
+      <c r="E706" s="66"/>
+      <c r="F706" s="65"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="E707" s="65"/>
-      <c r="F707" s="64"/>
+      <c r="E707" s="66"/>
+      <c r="F707" s="65"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="E708" s="65"/>
-      <c r="F708" s="64"/>
+      <c r="E708" s="66"/>
+      <c r="F708" s="65"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="E709" s="65"/>
-      <c r="F709" s="64"/>
+      <c r="E709" s="66"/>
+      <c r="F709" s="65"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="E710" s="65"/>
-      <c r="F710" s="64"/>
+      <c r="E710" s="66"/>
+      <c r="F710" s="65"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="E711" s="65"/>
-      <c r="F711" s="64"/>
+      <c r="E711" s="66"/>
+      <c r="F711" s="65"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="E712" s="65"/>
-      <c r="F712" s="64"/>
+      <c r="E712" s="66"/>
+      <c r="F712" s="65"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="E713" s="65"/>
-      <c r="F713" s="64"/>
+      <c r="E713" s="66"/>
+      <c r="F713" s="65"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="E714" s="65"/>
-      <c r="F714" s="64"/>
+      <c r="E714" s="66"/>
+      <c r="F714" s="65"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="E715" s="65"/>
-      <c r="F715" s="64"/>
+      <c r="E715" s="66"/>
+      <c r="F715" s="65"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="E716" s="65"/>
-      <c r="F716" s="64"/>
+      <c r="E716" s="66"/>
+      <c r="F716" s="65"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="E717" s="65"/>
-      <c r="F717" s="64"/>
+      <c r="E717" s="66"/>
+      <c r="F717" s="65"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="E718" s="65"/>
-      <c r="F718" s="64"/>
+      <c r="E718" s="66"/>
+      <c r="F718" s="65"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="E719" s="65"/>
-      <c r="F719" s="64"/>
+      <c r="E719" s="66"/>
+      <c r="F719" s="65"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="E720" s="65"/>
-      <c r="F720" s="64"/>
+      <c r="E720" s="66"/>
+      <c r="F720" s="65"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="E721" s="65"/>
-      <c r="F721" s="64"/>
+      <c r="E721" s="66"/>
+      <c r="F721" s="65"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="E722" s="65"/>
-      <c r="F722" s="64"/>
+      <c r="E722" s="66"/>
+      <c r="F722" s="65"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="E723" s="65"/>
-      <c r="F723" s="64"/>
+      <c r="E723" s="66"/>
+      <c r="F723" s="65"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="E724" s="65"/>
-      <c r="F724" s="64"/>
+      <c r="E724" s="66"/>
+      <c r="F724" s="65"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="E725" s="65"/>
-      <c r="F725" s="64"/>
+      <c r="E725" s="66"/>
+      <c r="F725" s="65"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="E726" s="65"/>
-      <c r="F726" s="64"/>
+      <c r="E726" s="66"/>
+      <c r="F726" s="65"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="E727" s="65"/>
-      <c r="F727" s="64"/>
+      <c r="E727" s="66"/>
+      <c r="F727" s="65"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="E728" s="65"/>
-      <c r="F728" s="64"/>
+      <c r="E728" s="66"/>
+      <c r="F728" s="65"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="E729" s="65"/>
-      <c r="F729" s="64"/>
+      <c r="E729" s="66"/>
+      <c r="F729" s="65"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="E730" s="65"/>
-      <c r="F730" s="64"/>
+      <c r="E730" s="66"/>
+      <c r="F730" s="65"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="E731" s="65"/>
-      <c r="F731" s="64"/>
+      <c r="E731" s="66"/>
+      <c r="F731" s="65"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="E732" s="65"/>
-      <c r="F732" s="64"/>
+      <c r="E732" s="66"/>
+      <c r="F732" s="65"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="E733" s="65"/>
-      <c r="F733" s="64"/>
+      <c r="E733" s="66"/>
+      <c r="F733" s="65"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="E734" s="65"/>
-      <c r="F734" s="64"/>
+      <c r="E734" s="66"/>
+      <c r="F734" s="65"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="E735" s="65"/>
-      <c r="F735" s="64"/>
+      <c r="E735" s="66"/>
+      <c r="F735" s="65"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="E736" s="65"/>
-      <c r="F736" s="64"/>
+      <c r="E736" s="66"/>
+      <c r="F736" s="65"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="E737" s="65"/>
-      <c r="F737" s="64"/>
+      <c r="E737" s="66"/>
+      <c r="F737" s="65"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="E738" s="65"/>
-      <c r="F738" s="64"/>
+      <c r="E738" s="66"/>
+      <c r="F738" s="65"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="E739" s="65"/>
-      <c r="F739" s="64"/>
+      <c r="E739" s="66"/>
+      <c r="F739" s="65"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="E740" s="65"/>
-      <c r="F740" s="64"/>
+      <c r="E740" s="66"/>
+      <c r="F740" s="65"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="E741" s="65"/>
-      <c r="F741" s="64"/>
+      <c r="E741" s="66"/>
+      <c r="F741" s="65"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="E742" s="65"/>
-      <c r="F742" s="64"/>
+      <c r="E742" s="66"/>
+      <c r="F742" s="65"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="E743" s="65"/>
-      <c r="F743" s="64"/>
+      <c r="E743" s="66"/>
+      <c r="F743" s="65"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="E744" s="65"/>
-      <c r="F744" s="64"/>
+      <c r="E744" s="66"/>
+      <c r="F744" s="65"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="E745" s="65"/>
-      <c r="F745" s="64"/>
+      <c r="E745" s="66"/>
+      <c r="F745" s="65"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="E746" s="65"/>
-      <c r="F746" s="64"/>
+      <c r="E746" s="66"/>
+      <c r="F746" s="65"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="E747" s="65"/>
-      <c r="F747" s="64"/>
+      <c r="E747" s="66"/>
+      <c r="F747" s="65"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="E748" s="65"/>
-      <c r="F748" s="64"/>
+      <c r="E748" s="66"/>
+      <c r="F748" s="65"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="E749" s="65"/>
-      <c r="F749" s="64"/>
+      <c r="E749" s="66"/>
+      <c r="F749" s="65"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="E750" s="65"/>
-      <c r="F750" s="64"/>
+      <c r="E750" s="66"/>
+      <c r="F750" s="65"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="E751" s="65"/>
-      <c r="F751" s="64"/>
+      <c r="E751" s="66"/>
+      <c r="F751" s="65"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="E752" s="65"/>
-      <c r="F752" s="64"/>
+      <c r="E752" s="66"/>
+      <c r="F752" s="65"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="E753" s="65"/>
-      <c r="F753" s="64"/>
+      <c r="E753" s="66"/>
+      <c r="F753" s="65"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="E754" s="65"/>
-      <c r="F754" s="64"/>
+      <c r="E754" s="66"/>
+      <c r="F754" s="65"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="E755" s="65"/>
-      <c r="F755" s="64"/>
+      <c r="E755" s="66"/>
+      <c r="F755" s="65"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="E756" s="65"/>
-      <c r="F756" s="64"/>
+      <c r="E756" s="66"/>
+      <c r="F756" s="65"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="E757" s="65"/>
-      <c r="F757" s="64"/>
+      <c r="E757" s="66"/>
+      <c r="F757" s="65"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="E758" s="65"/>
-      <c r="F758" s="64"/>
+      <c r="E758" s="66"/>
+      <c r="F758" s="65"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="E759" s="65"/>
-      <c r="F759" s="64"/>
+      <c r="E759" s="66"/>
+      <c r="F759" s="65"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="E760" s="65"/>
-      <c r="F760" s="64"/>
+      <c r="E760" s="66"/>
+      <c r="F760" s="65"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="E761" s="65"/>
-      <c r="F761" s="64"/>
+      <c r="E761" s="66"/>
+      <c r="F761" s="65"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="E762" s="65"/>
-      <c r="F762" s="64"/>
+      <c r="E762" s="66"/>
+      <c r="F762" s="65"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="E763" s="65"/>
-      <c r="F763" s="64"/>
+      <c r="E763" s="66"/>
+      <c r="F763" s="65"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="E764" s="65"/>
-      <c r="F764" s="64"/>
+      <c r="E764" s="66"/>
+      <c r="F764" s="65"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="E765" s="65"/>
-      <c r="F765" s="64"/>
+      <c r="E765" s="66"/>
+      <c r="F765" s="65"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="E766" s="65"/>
-      <c r="F766" s="64"/>
+      <c r="E766" s="66"/>
+      <c r="F766" s="65"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="E767" s="65"/>
-      <c r="F767" s="64"/>
+      <c r="E767" s="66"/>
+      <c r="F767" s="65"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="E768" s="65"/>
-      <c r="F768" s="64"/>
+      <c r="E768" s="66"/>
+      <c r="F768" s="65"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="E769" s="65"/>
-      <c r="F769" s="64"/>
+      <c r="E769" s="66"/>
+      <c r="F769" s="65"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="E770" s="65"/>
-      <c r="F770" s="64"/>
+      <c r="E770" s="66"/>
+      <c r="F770" s="65"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="E771" s="65"/>
-      <c r="F771" s="64"/>
+      <c r="E771" s="66"/>
+      <c r="F771" s="65"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="E772" s="65"/>
-      <c r="F772" s="64"/>
+      <c r="E772" s="66"/>
+      <c r="F772" s="65"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="E773" s="65"/>
-      <c r="F773" s="64"/>
+      <c r="E773" s="66"/>
+      <c r="F773" s="65"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="E774" s="65"/>
-      <c r="F774" s="64"/>
+      <c r="E774" s="66"/>
+      <c r="F774" s="65"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="E775" s="65"/>
-      <c r="F775" s="64"/>
+      <c r="E775" s="66"/>
+      <c r="F775" s="65"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="E776" s="65"/>
-      <c r="F776" s="64"/>
+      <c r="E776" s="66"/>
+      <c r="F776" s="65"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="E777" s="65"/>
-      <c r="F777" s="64"/>
+      <c r="E777" s="66"/>
+      <c r="F777" s="65"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="E778" s="65"/>
-      <c r="F778" s="64"/>
+      <c r="E778" s="66"/>
+      <c r="F778" s="65"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="E779" s="65"/>
-      <c r="F779" s="64"/>
+      <c r="E779" s="66"/>
+      <c r="F779" s="65"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="E780" s="65"/>
-      <c r="F780" s="64"/>
+      <c r="E780" s="66"/>
+      <c r="F780" s="65"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="E781" s="65"/>
-      <c r="F781" s="64"/>
+      <c r="E781" s="66"/>
+      <c r="F781" s="65"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="E782" s="65"/>
-      <c r="F782" s="64"/>
+      <c r="E782" s="66"/>
+      <c r="F782" s="65"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="E783" s="65"/>
-      <c r="F783" s="64"/>
+      <c r="E783" s="66"/>
+      <c r="F783" s="65"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="E784" s="65"/>
-      <c r="F784" s="64"/>
+      <c r="E784" s="66"/>
+      <c r="F784" s="65"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="E785" s="65"/>
-      <c r="F785" s="64"/>
+      <c r="E785" s="66"/>
+      <c r="F785" s="65"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="E786" s="65"/>
-      <c r="F786" s="64"/>
+      <c r="E786" s="66"/>
+      <c r="F786" s="65"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="E787" s="65"/>
-      <c r="F787" s="64"/>
+      <c r="E787" s="66"/>
+      <c r="F787" s="65"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="E788" s="65"/>
-      <c r="F788" s="64"/>
+      <c r="E788" s="66"/>
+      <c r="F788" s="65"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="E789" s="65"/>
-      <c r="F789" s="64"/>
+      <c r="E789" s="66"/>
+      <c r="F789" s="65"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="E790" s="65"/>
-      <c r="F790" s="64"/>
+      <c r="E790" s="66"/>
+      <c r="F790" s="65"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="E791" s="65"/>
-      <c r="F791" s="64"/>
+      <c r="E791" s="66"/>
+      <c r="F791" s="65"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="E792" s="65"/>
-      <c r="F792" s="64"/>
+      <c r="E792" s="66"/>
+      <c r="F792" s="65"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="E793" s="65"/>
-      <c r="F793" s="64"/>
+      <c r="E793" s="66"/>
+      <c r="F793" s="65"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="E794" s="65"/>
-      <c r="F794" s="64"/>
+      <c r="E794" s="66"/>
+      <c r="F794" s="65"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="E795" s="65"/>
-      <c r="F795" s="64"/>
+      <c r="E795" s="66"/>
+      <c r="F795" s="65"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="E796" s="65"/>
-      <c r="F796" s="64"/>
+      <c r="E796" s="66"/>
+      <c r="F796" s="65"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="E797" s="65"/>
-      <c r="F797" s="64"/>
+      <c r="E797" s="66"/>
+      <c r="F797" s="65"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="E798" s="65"/>
-      <c r="F798" s="64"/>
+      <c r="E798" s="66"/>
+      <c r="F798" s="65"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="E799" s="65"/>
-      <c r="F799" s="64"/>
+      <c r="E799" s="66"/>
+      <c r="F799" s="65"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="E800" s="65"/>
-      <c r="F800" s="64"/>
+      <c r="E800" s="66"/>
+      <c r="F800" s="65"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="E801" s="65"/>
-      <c r="F801" s="64"/>
+      <c r="E801" s="66"/>
+      <c r="F801" s="65"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="E802" s="65"/>
-      <c r="F802" s="64"/>
+      <c r="E802" s="66"/>
+      <c r="F802" s="65"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="E803" s="65"/>
-      <c r="F803" s="64"/>
+      <c r="E803" s="66"/>
+      <c r="F803" s="65"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="E804" s="65"/>
-      <c r="F804" s="64"/>
+      <c r="E804" s="66"/>
+      <c r="F804" s="65"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="E805" s="65"/>
-      <c r="F805" s="64"/>
+      <c r="E805" s="66"/>
+      <c r="F805" s="65"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="E806" s="65"/>
-      <c r="F806" s="64"/>
+      <c r="E806" s="66"/>
+      <c r="F806" s="65"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="E807" s="65"/>
-      <c r="F807" s="64"/>
+      <c r="E807" s="66"/>
+      <c r="F807" s="65"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="E808" s="65"/>
-      <c r="F808" s="64"/>
+      <c r="E808" s="66"/>
+      <c r="F808" s="65"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="E809" s="65"/>
-      <c r="F809" s="64"/>
+      <c r="E809" s="66"/>
+      <c r="F809" s="65"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="E810" s="65"/>
-      <c r="F810" s="64"/>
+      <c r="E810" s="66"/>
+      <c r="F810" s="65"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="E811" s="65"/>
-      <c r="F811" s="64"/>
+      <c r="E811" s="66"/>
+      <c r="F811" s="65"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="E812" s="65"/>
-      <c r="F812" s="64"/>
+      <c r="E812" s="66"/>
+      <c r="F812" s="65"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="E813" s="65"/>
-      <c r="F813" s="64"/>
+      <c r="E813" s="66"/>
+      <c r="F813" s="65"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="E814" s="65"/>
-      <c r="F814" s="64"/>
+      <c r="E814" s="66"/>
+      <c r="F814" s="65"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="E815" s="65"/>
-      <c r="F815" s="64"/>
+      <c r="E815" s="66"/>
+      <c r="F815" s="65"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="E816" s="65"/>
-      <c r="F816" s="64"/>
+      <c r="E816" s="66"/>
+      <c r="F816" s="65"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="E817" s="65"/>
-      <c r="F817" s="64"/>
+      <c r="E817" s="66"/>
+      <c r="F817" s="65"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="E818" s="65"/>
-      <c r="F818" s="64"/>
+      <c r="E818" s="66"/>
+      <c r="F818" s="65"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="E819" s="65"/>
-      <c r="F819" s="64"/>
+      <c r="E819" s="66"/>
+      <c r="F819" s="65"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="E820" s="65"/>
-      <c r="F820" s="64"/>
+      <c r="E820" s="66"/>
+      <c r="F820" s="65"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="E821" s="65"/>
-      <c r="F821" s="64"/>
+      <c r="E821" s="66"/>
+      <c r="F821" s="65"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="E822" s="65"/>
-      <c r="F822" s="64"/>
+      <c r="E822" s="66"/>
+      <c r="F822" s="65"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="E823" s="65"/>
-      <c r="F823" s="64"/>
+      <c r="E823" s="66"/>
+      <c r="F823" s="65"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="E824" s="65"/>
-      <c r="F824" s="64"/>
+      <c r="E824" s="66"/>
+      <c r="F824" s="65"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="E825" s="65"/>
-      <c r="F825" s="64"/>
+      <c r="E825" s="66"/>
+      <c r="F825" s="65"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="E826" s="65"/>
-      <c r="F826" s="64"/>
+      <c r="E826" s="66"/>
+      <c r="F826" s="65"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="E827" s="65"/>
-      <c r="F827" s="64"/>
+      <c r="E827" s="66"/>
+      <c r="F827" s="65"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="E828" s="65"/>
-      <c r="F828" s="64"/>
+      <c r="E828" s="66"/>
+      <c r="F828" s="65"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="E829" s="65"/>
-      <c r="F829" s="64"/>
+      <c r="E829" s="66"/>
+      <c r="F829" s="65"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="E830" s="65"/>
-      <c r="F830" s="64"/>
+      <c r="E830" s="66"/>
+      <c r="F830" s="65"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="E831" s="65"/>
-      <c r="F831" s="64"/>
+      <c r="E831" s="66"/>
+      <c r="F831" s="65"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="E832" s="65"/>
-      <c r="F832" s="64"/>
+      <c r="E832" s="66"/>
+      <c r="F832" s="65"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="E833" s="65"/>
-      <c r="F833" s="64"/>
+      <c r="E833" s="66"/>
+      <c r="F833" s="65"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="E834" s="65"/>
-      <c r="F834" s="64"/>
+      <c r="E834" s="66"/>
+      <c r="F834" s="65"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="E835" s="65"/>
-      <c r="F835" s="64"/>
+      <c r="E835" s="66"/>
+      <c r="F835" s="65"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="E836" s="65"/>
-      <c r="F836" s="64"/>
+      <c r="E836" s="66"/>
+      <c r="F836" s="65"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="E837" s="65"/>
-      <c r="F837" s="64"/>
+      <c r="E837" s="66"/>
+      <c r="F837" s="65"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="E838" s="65"/>
-      <c r="F838" s="64"/>
+      <c r="E838" s="66"/>
+      <c r="F838" s="65"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="E839" s="65"/>
-      <c r="F839" s="64"/>
+      <c r="E839" s="66"/>
+      <c r="F839" s="65"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="E840" s="65"/>
-      <c r="F840" s="64"/>
+      <c r="E840" s="66"/>
+      <c r="F840" s="65"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="E841" s="65"/>
-      <c r="F841" s="64"/>
+      <c r="E841" s="66"/>
+      <c r="F841" s="65"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="E842" s="65"/>
-      <c r="F842" s="64"/>
+      <c r="E842" s="66"/>
+      <c r="F842" s="65"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="E843" s="65"/>
-      <c r="F843" s="64"/>
+      <c r="E843" s="66"/>
+      <c r="F843" s="65"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="E844" s="65"/>
-      <c r="F844" s="64"/>
+      <c r="E844" s="66"/>
+      <c r="F844" s="65"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="E845" s="65"/>
-      <c r="F845" s="64"/>
+      <c r="E845" s="66"/>
+      <c r="F845" s="65"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="E846" s="65"/>
-      <c r="F846" s="64"/>
+      <c r="E846" s="66"/>
+      <c r="F846" s="65"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="E847" s="65"/>
-      <c r="F847" s="64"/>
+      <c r="E847" s="66"/>
+      <c r="F847" s="65"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="E848" s="65"/>
-      <c r="F848" s="64"/>
+      <c r="E848" s="66"/>
+      <c r="F848" s="65"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="E849" s="65"/>
-      <c r="F849" s="64"/>
+      <c r="E849" s="66"/>
+      <c r="F849" s="65"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="E850" s="65"/>
-      <c r="F850" s="64"/>
+      <c r="E850" s="66"/>
+      <c r="F850" s="65"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="E851" s="65"/>
-      <c r="F851" s="64"/>
+      <c r="E851" s="66"/>
+      <c r="F851" s="65"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="E852" s="65"/>
-      <c r="F852" s="64"/>
+      <c r="E852" s="66"/>
+      <c r="F852" s="65"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="E853" s="65"/>
-      <c r="F853" s="64"/>
+      <c r="E853" s="66"/>
+      <c r="F853" s="65"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="E854" s="65"/>
-      <c r="F854" s="64"/>
+      <c r="E854" s="66"/>
+      <c r="F854" s="65"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="E855" s="65"/>
-      <c r="F855" s="64"/>
+      <c r="E855" s="66"/>
+      <c r="F855" s="65"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="E856" s="65"/>
-      <c r="F856" s="64"/>
+      <c r="E856" s="66"/>
+      <c r="F856" s="65"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="E857" s="65"/>
-      <c r="F857" s="64"/>
+      <c r="E857" s="66"/>
+      <c r="F857" s="65"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="E858" s="65"/>
-      <c r="F858" s="64"/>
+      <c r="E858" s="66"/>
+      <c r="F858" s="65"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="E859" s="65"/>
-      <c r="F859" s="64"/>
+      <c r="E859" s="66"/>
+      <c r="F859" s="65"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="E860" s="65"/>
-      <c r="F860" s="64"/>
+      <c r="E860" s="66"/>
+      <c r="F860" s="65"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="E861" s="65"/>
-      <c r="F861" s="64"/>
+      <c r="E861" s="66"/>
+      <c r="F861" s="65"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="E862" s="65"/>
-      <c r="F862" s="64"/>
+      <c r="E862" s="66"/>
+      <c r="F862" s="65"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="E863" s="65"/>
-      <c r="F863" s="64"/>
+      <c r="E863" s="66"/>
+      <c r="F863" s="65"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="E864" s="65"/>
-      <c r="F864" s="64"/>
+      <c r="E864" s="66"/>
+      <c r="F864" s="65"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="E865" s="65"/>
-      <c r="F865" s="64"/>
+      <c r="E865" s="66"/>
+      <c r="F865" s="65"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="E866" s="65"/>
-      <c r="F866" s="64"/>
+      <c r="E866" s="66"/>
+      <c r="F866" s="65"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="E867" s="65"/>
-      <c r="F867" s="64"/>
+      <c r="E867" s="66"/>
+      <c r="F867" s="65"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="E868" s="65"/>
-      <c r="F868" s="64"/>
+      <c r="E868" s="66"/>
+      <c r="F868" s="65"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="E869" s="65"/>
-      <c r="F869" s="64"/>
+      <c r="E869" s="66"/>
+      <c r="F869" s="65"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="E870" s="65"/>
-      <c r="F870" s="64"/>
+      <c r="E870" s="66"/>
+      <c r="F870" s="65"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="E871" s="65"/>
-      <c r="F871" s="64"/>
+      <c r="E871" s="66"/>
+      <c r="F871" s="65"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="E872" s="65"/>
-      <c r="F872" s="64"/>
+      <c r="E872" s="66"/>
+      <c r="F872" s="65"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="E873" s="65"/>
-      <c r="F873" s="64"/>
+      <c r="E873" s="66"/>
+      <c r="F873" s="65"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="E874" s="65"/>
-      <c r="F874" s="64"/>
+      <c r="E874" s="66"/>
+      <c r="F874" s="65"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="E875" s="65"/>
-      <c r="F875" s="64"/>
+      <c r="E875" s="66"/>
+      <c r="F875" s="65"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="E876" s="65"/>
-      <c r="F876" s="64"/>
+      <c r="E876" s="66"/>
+      <c r="F876" s="65"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="E877" s="65"/>
-      <c r="F877" s="64"/>
+      <c r="E877" s="66"/>
+      <c r="F877" s="65"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="E878" s="65"/>
-      <c r="F878" s="64"/>
+      <c r="E878" s="66"/>
+      <c r="F878" s="65"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="E879" s="65"/>
-      <c r="F879" s="64"/>
+      <c r="E879" s="66"/>
+      <c r="F879" s="65"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="E880" s="65"/>
-      <c r="F880" s="64"/>
+      <c r="E880" s="66"/>
+      <c r="F880" s="65"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="E881" s="65"/>
-      <c r="F881" s="64"/>
+      <c r="E881" s="66"/>
+      <c r="F881" s="65"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="E882" s="65"/>
-      <c r="F882" s="64"/>
+      <c r="E882" s="66"/>
+      <c r="F882" s="65"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="E883" s="65"/>
-      <c r="F883" s="64"/>
+      <c r="E883" s="66"/>
+      <c r="F883" s="65"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="E884" s="65"/>
-      <c r="F884" s="64"/>
+      <c r="E884" s="66"/>
+      <c r="F884" s="65"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="E885" s="65"/>
-      <c r="F885" s="64"/>
+      <c r="E885" s="66"/>
+      <c r="F885" s="65"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="E886" s="65"/>
-      <c r="F886" s="64"/>
+      <c r="E886" s="66"/>
+      <c r="F886" s="65"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="E887" s="65"/>
-      <c r="F887" s="64"/>
+      <c r="E887" s="66"/>
+      <c r="F887" s="65"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="E888" s="65"/>
-      <c r="F888" s="64"/>
+      <c r="E888" s="66"/>
+      <c r="F888" s="65"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="E889" s="65"/>
-      <c r="F889" s="64"/>
+      <c r="E889" s="66"/>
+      <c r="F889" s="65"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="E890" s="65"/>
-      <c r="F890" s="64"/>
+      <c r="E890" s="66"/>
+      <c r="F890" s="65"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="E891" s="65"/>
-      <c r="F891" s="64"/>
+      <c r="E891" s="66"/>
+      <c r="F891" s="65"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="E892" s="65"/>
-      <c r="F892" s="64"/>
+      <c r="E892" s="66"/>
+      <c r="F892" s="65"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="E893" s="65"/>
-      <c r="F893" s="64"/>
+      <c r="E893" s="66"/>
+      <c r="F893" s="65"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="E894" s="65"/>
-      <c r="F894" s="64"/>
+      <c r="E894" s="66"/>
+      <c r="F894" s="65"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="E895" s="65"/>
-      <c r="F895" s="64"/>
+      <c r="E895" s="66"/>
+      <c r="F895" s="65"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="E896" s="65"/>
-      <c r="F896" s="64"/>
+      <c r="E896" s="66"/>
+      <c r="F896" s="65"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="E897" s="65"/>
-      <c r="F897" s="64"/>
+      <c r="E897" s="66"/>
+      <c r="F897" s="65"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="E898" s="65"/>
-      <c r="F898" s="64"/>
+      <c r="E898" s="66"/>
+      <c r="F898" s="65"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="E899" s="65"/>
-      <c r="F899" s="64"/>
+      <c r="E899" s="66"/>
+      <c r="F899" s="65"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="E900" s="65"/>
-      <c r="F900" s="64"/>
+      <c r="E900" s="66"/>
+      <c r="F900" s="65"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="E901" s="65"/>
-      <c r="F901" s="64"/>
+      <c r="E901" s="66"/>
+      <c r="F901" s="65"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="E902" s="65"/>
-      <c r="F902" s="64"/>
+      <c r="E902" s="66"/>
+      <c r="F902" s="65"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="E903" s="65"/>
-      <c r="F903" s="64"/>
+      <c r="E903" s="66"/>
+      <c r="F903" s="65"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="E904" s="65"/>
-      <c r="F904" s="64"/>
+      <c r="E904" s="66"/>
+      <c r="F904" s="65"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="E905" s="65"/>
-      <c r="F905" s="64"/>
+      <c r="E905" s="66"/>
+      <c r="F905" s="65"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="E906" s="65"/>
-      <c r="F906" s="64"/>
+      <c r="E906" s="66"/>
+      <c r="F906" s="65"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="E907" s="65"/>
-      <c r="F907" s="64"/>
+      <c r="E907" s="66"/>
+      <c r="F907" s="65"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="E908" s="65"/>
-      <c r="F908" s="64"/>
+      <c r="E908" s="66"/>
+      <c r="F908" s="65"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="E909" s="65"/>
-      <c r="F909" s="64"/>
+      <c r="E909" s="66"/>
+      <c r="F909" s="65"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="E910" s="65"/>
-      <c r="F910" s="64"/>
+      <c r="E910" s="66"/>
+      <c r="F910" s="65"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="E911" s="65"/>
-      <c r="F911" s="64"/>
+      <c r="E911" s="66"/>
+      <c r="F911" s="65"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="E912" s="65"/>
-      <c r="F912" s="64"/>
+      <c r="E912" s="66"/>
+      <c r="F912" s="65"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="E913" s="65"/>
-      <c r="F913" s="64"/>
+      <c r="E913" s="66"/>
+      <c r="F913" s="65"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="E914" s="65"/>
-      <c r="F914" s="64"/>
+      <c r="E914" s="66"/>
+      <c r="F914" s="65"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="E915" s="65"/>
-      <c r="F915" s="64"/>
+      <c r="E915" s="66"/>
+      <c r="F915" s="65"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="E916" s="65"/>
-      <c r="F916" s="64"/>
+      <c r="E916" s="66"/>
+      <c r="F916" s="65"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="E917" s="65"/>
-      <c r="F917" s="64"/>
+      <c r="E917" s="66"/>
+      <c r="F917" s="65"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="E918" s="65"/>
-      <c r="F918" s="64"/>
+      <c r="E918" s="66"/>
+      <c r="F918" s="65"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="E919" s="65"/>
-      <c r="F919" s="64"/>
+      <c r="E919" s="66"/>
+      <c r="F919" s="65"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="E920" s="65"/>
-      <c r="F920" s="64"/>
+      <c r="E920" s="66"/>
+      <c r="F920" s="65"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="E921" s="65"/>
-      <c r="F921" s="64"/>
+      <c r="E921" s="66"/>
+      <c r="F921" s="65"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="E922" s="65"/>
-      <c r="F922" s="64"/>
+      <c r="E922" s="66"/>
+      <c r="F922" s="65"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="E923" s="65"/>
-      <c r="F923" s="64"/>
+      <c r="E923" s="66"/>
+      <c r="F923" s="65"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="E924" s="65"/>
-      <c r="F924" s="64"/>
+      <c r="E924" s="66"/>
+      <c r="F924" s="65"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="E925" s="65"/>
-      <c r="F925" s="64"/>
+      <c r="E925" s="66"/>
+      <c r="F925" s="65"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="E926" s="65"/>
-      <c r="F926" s="64"/>
+      <c r="E926" s="66"/>
+      <c r="F926" s="65"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="E927" s="65"/>
-      <c r="F927" s="64"/>
+      <c r="E927" s="66"/>
+      <c r="F927" s="65"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="E928" s="65"/>
-      <c r="F928" s="64"/>
+      <c r="E928" s="66"/>
+      <c r="F928" s="65"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="E929" s="65"/>
-      <c r="F929" s="64"/>
+      <c r="E929" s="66"/>
+      <c r="F929" s="65"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="E930" s="65"/>
-      <c r="F930" s="64"/>
+      <c r="E930" s="66"/>
+      <c r="F930" s="65"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="E931" s="65"/>
-      <c r="F931" s="64"/>
+      <c r="E931" s="66"/>
+      <c r="F931" s="65"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="E932" s="65"/>
-      <c r="F932" s="64"/>
+      <c r="E932" s="66"/>
+      <c r="F932" s="65"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="E933" s="65"/>
-      <c r="F933" s="64"/>
+      <c r="E933" s="66"/>
+      <c r="F933" s="65"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="E934" s="65"/>
-      <c r="F934" s="64"/>
+      <c r="E934" s="66"/>
+      <c r="F934" s="65"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="E935" s="65"/>
-      <c r="F935" s="64"/>
+      <c r="E935" s="66"/>
+      <c r="F935" s="65"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="E936" s="65"/>
-      <c r="F936" s="64"/>
+      <c r="E936" s="66"/>
+      <c r="F936" s="65"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="E937" s="65"/>
-      <c r="F937" s="64"/>
+      <c r="E937" s="66"/>
+      <c r="F937" s="65"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="E938" s="65"/>
-      <c r="F938" s="64"/>
+      <c r="E938" s="66"/>
+      <c r="F938" s="65"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="E939" s="65"/>
-      <c r="F939" s="64"/>
+      <c r="E939" s="66"/>
+      <c r="F939" s="65"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="E940" s="65"/>
-      <c r="F940" s="64"/>
+      <c r="E940" s="66"/>
+      <c r="F940" s="65"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="E941" s="65"/>
-      <c r="F941" s="64"/>
+      <c r="E941" s="66"/>
+      <c r="F941" s="65"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="E942" s="65"/>
-      <c r="F942" s="64"/>
+      <c r="E942" s="66"/>
+      <c r="F942" s="65"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="E943" s="65"/>
-      <c r="F943" s="64"/>
+      <c r="E943" s="66"/>
+      <c r="F943" s="65"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="E944" s="65"/>
-      <c r="F944" s="64"/>
+      <c r="E944" s="66"/>
+      <c r="F944" s="65"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="E945" s="65"/>
-      <c r="F945" s="64"/>
+      <c r="E945" s="66"/>
+      <c r="F945" s="65"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="E946" s="65"/>
-      <c r="F946" s="64"/>
+      <c r="E946" s="66"/>
+      <c r="F946" s="65"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="E947" s="65"/>
-      <c r="F947" s="64"/>
+      <c r="E947" s="66"/>
+      <c r="F947" s="65"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="E948" s="65"/>
-      <c r="F948" s="64"/>
+      <c r="E948" s="66"/>
+      <c r="F948" s="65"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="E949" s="65"/>
-      <c r="F949" s="64"/>
+      <c r="E949" s="66"/>
+      <c r="F949" s="65"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="E950" s="65"/>
-      <c r="F950" s="64"/>
+      <c r="E950" s="66"/>
+      <c r="F950" s="65"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="E951" s="65"/>
-      <c r="F951" s="64"/>
+      <c r="E951" s="66"/>
+      <c r="F951" s="65"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="E952" s="65"/>
-      <c r="F952" s="64"/>
+      <c r="E952" s="66"/>
+      <c r="F952" s="65"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="E953" s="65"/>
-      <c r="F953" s="64"/>
+      <c r="E953" s="66"/>
+      <c r="F953" s="65"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="E954" s="65"/>
-      <c r="F954" s="64"/>
+      <c r="E954" s="66"/>
+      <c r="F954" s="65"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="E955" s="65"/>
-      <c r="F955" s="64"/>
+      <c r="E955" s="66"/>
+      <c r="F955" s="65"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="E956" s="65"/>
-      <c r="F956" s="64"/>
+      <c r="E956" s="66"/>
+      <c r="F956" s="65"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="E957" s="65"/>
-      <c r="F957" s="64"/>
+      <c r="E957" s="66"/>
+      <c r="F957" s="65"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="E958" s="65"/>
-      <c r="F958" s="64"/>
+      <c r="E958" s="66"/>
+      <c r="F958" s="65"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="E959" s="65"/>
-      <c r="F959" s="64"/>
+      <c r="E959" s="66"/>
+      <c r="F959" s="65"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="E960" s="65"/>
-      <c r="F960" s="64"/>
+      <c r="E960" s="66"/>
+      <c r="F960" s="65"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="E961" s="65"/>
-      <c r="F961" s="64"/>
+      <c r="E961" s="66"/>
+      <c r="F961" s="65"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="E962" s="65"/>
-      <c r="F962" s="64"/>
+      <c r="E962" s="66"/>
+      <c r="F962" s="65"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="E963" s="65"/>
-      <c r="F963" s="64"/>
+      <c r="E963" s="66"/>
+      <c r="F963" s="65"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="E964" s="65"/>
-      <c r="F964" s="64"/>
+      <c r="E964" s="66"/>
+      <c r="F964" s="65"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="E965" s="65"/>
-      <c r="F965" s="64"/>
+      <c r="E965" s="66"/>
+      <c r="F965" s="65"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="E966" s="65"/>
-      <c r="F966" s="64"/>
+      <c r="E966" s="66"/>
+      <c r="F966" s="65"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="E967" s="65"/>
-      <c r="F967" s="64"/>
+      <c r="E967" s="66"/>
+      <c r="F967" s="65"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="E968" s="65"/>
-      <c r="F968" s="64"/>
+      <c r="E968" s="66"/>
+      <c r="F968" s="65"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="E969" s="65"/>
-      <c r="F969" s="64"/>
+      <c r="E969" s="66"/>
+      <c r="F969" s="65"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="E970" s="65"/>
-      <c r="F970" s="64"/>
+      <c r="E970" s="66"/>
+      <c r="F970" s="65"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="E971" s="65"/>
-      <c r="F971" s="64"/>
+      <c r="E971" s="66"/>
+      <c r="F971" s="65"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="E972" s="65"/>
-      <c r="F972" s="64"/>
+      <c r="E972" s="66"/>
+      <c r="F972" s="65"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="E973" s="65"/>
-      <c r="F973" s="64"/>
+      <c r="E973" s="66"/>
+      <c r="F973" s="65"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="E974" s="65"/>
-      <c r="F974" s="64"/>
+      <c r="E974" s="66"/>
+      <c r="F974" s="65"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="E975" s="65"/>
-      <c r="F975" s="64"/>
+      <c r="E975" s="66"/>
+      <c r="F975" s="65"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="E976" s="65"/>
-      <c r="F976" s="64"/>
+      <c r="E976" s="66"/>
+      <c r="F976" s="65"/>
     </row>
     <row r="977" ht="16.5" customHeight="1">
-      <c r="E977" s="65"/>
-      <c r="F977" s="64"/>
+      <c r="E977" s="66"/>
+      <c r="F977" s="65"/>
     </row>
     <row r="978" ht="16.5" customHeight="1">
-      <c r="E978" s="65"/>
-      <c r="F978" s="64"/>
+      <c r="E978" s="66"/>
+      <c r="F978" s="65"/>
     </row>
     <row r="979" ht="16.5" customHeight="1">
-      <c r="E979" s="65"/>
-      <c r="F979" s="64"/>
+      <c r="E979" s="66"/>
+      <c r="F979" s="65"/>
     </row>
     <row r="980" ht="16.5" customHeight="1">
-      <c r="E980" s="65"/>
-      <c r="F980" s="64"/>
+      <c r="E980" s="66"/>
+      <c r="F980" s="65"/>
     </row>
     <row r="981" ht="16.5" customHeight="1">
-      <c r="E981" s="65"/>
-      <c r="F981" s="64"/>
+      <c r="E981" s="66"/>
+      <c r="F981" s="65"/>
     </row>
     <row r="982" ht="16.5" customHeight="1">
-      <c r="E982" s="65"/>
-      <c r="F982" s="64"/>
+      <c r="E982" s="66"/>
+      <c r="F982" s="65"/>
     </row>
     <row r="983" ht="16.5" customHeight="1">
-      <c r="E983" s="65"/>
-      <c r="F983" s="64"/>
+      <c r="E983" s="66"/>
+      <c r="F983" s="65"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="E984" s="65"/>
-      <c r="F984" s="64"/>
+      <c r="E984" s="66"/>
+      <c r="F984" s="65"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="E985" s="65"/>
-      <c r="F985" s="64"/>
+      <c r="E985" s="66"/>
+      <c r="F985" s="65"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="E986" s="65"/>
-      <c r="F986" s="64"/>
+      <c r="E986" s="66"/>
+      <c r="F986" s="65"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="E987" s="65"/>
-      <c r="F987" s="64"/>
+      <c r="E987" s="66"/>
+      <c r="F987" s="65"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="E988" s="65"/>
-      <c r="F988" s="64"/>
+      <c r="E988" s="66"/>
+      <c r="F988" s="65"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="E989" s="65"/>
-      <c r="F989" s="64"/>
+      <c r="E989" s="66"/>
+      <c r="F989" s="65"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="E990" s="65"/>
-      <c r="F990" s="64"/>
+      <c r="E990" s="66"/>
+      <c r="F990" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6805,4 +7053,1136 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="78">
+      <c r="I78" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80">
+      <c r="I80" s="5"/>
+      <c r="J80" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K80" s="7"/>
+      <c r="L80" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P80" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="I81" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="12"/>
+      <c r="L81" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M81" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O81" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P81" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="I82" s="18"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N82" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O82" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P82" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="I83" s="18"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O83" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P83" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="I84" s="18"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O84" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P84" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="I85" s="18"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="N85" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O85" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P85" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="I86" s="18"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M86" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N86" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P86" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="I87" s="18"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M87" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P87" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="I88" s="18"/>
+      <c r="J88" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K88" s="37"/>
+      <c r="L88" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M88" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="N88" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="O88" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P88" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="I89" s="18"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M89" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N89" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O89" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P89" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="I90" s="18"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M90" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N90" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="O90" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P90" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="I91" s="18"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M91" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="N91" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O91" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P91" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="I92" s="18"/>
+      <c r="J92" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="K92" s="37"/>
+      <c r="L92" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M92" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="N92" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="O92" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P92" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="I93" s="18"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="M93" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N93" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="O93" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P93" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="I94" s="18"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M94" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="N94" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="O94" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P94" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="I95" s="18"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M95" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="N95" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="O95" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P95" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="I96" s="18"/>
+      <c r="J96" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="K96" s="41"/>
+      <c r="L96" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="M96" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N96" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O96" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P96" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="I97" s="18"/>
+      <c r="J97" s="19"/>
+      <c r="L97" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="M97" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N97" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="O97" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P97" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="I98" s="18"/>
+      <c r="J98" s="19"/>
+      <c r="L98" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M98" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N98" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="O98" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P98" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="I99" s="18"/>
+      <c r="J99" s="19"/>
+      <c r="L99" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="M99" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="N99" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="O99" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P99" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="I100" s="18"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="M100" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N100" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O100" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P100" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="I101" s="18"/>
+      <c r="J101" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="K101" s="37"/>
+      <c r="L101" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M101" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N101" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O101" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P101" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" s="18"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="M102" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="N102" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O102" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P102" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="I103" s="18"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="M103" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="N103" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="O103" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P103" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="I104" s="18"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M104" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N104" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="O104" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P104" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="I105" s="18"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="M105" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="N105" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="O105" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P105" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="I106" s="18"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="M106" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="N106" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="O106" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P106" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="I107" s="18"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M107" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N107" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="O107" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P107" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="I108" s="18"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="31"/>
+      <c r="L108" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M108" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N108" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="O108" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P108" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="I109" s="18"/>
+      <c r="J109" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="K109" s="37"/>
+      <c r="L109" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M109" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="N109" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="O109" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="P109" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="I110" s="18"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="M110" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="N110" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="O110" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="P110" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="I111" s="18"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M111" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="N111" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="O111" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="P111" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="I112" s="18"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M112" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="N112" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="O112" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="P112" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="I113" s="18"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="M113" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="N113" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="O113" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="P113" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="I114" s="18"/>
+      <c r="J114" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K114" s="12"/>
+      <c r="L114" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="M114" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="N114" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="O114" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P114" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="I115" s="18"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M115" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N115" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="O115" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P115" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="I116" s="18"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M116" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="N116" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="O116" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P116" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="I117" s="18"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M117" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="N117" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="O117" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P117" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="I118" s="18"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="M118" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="N118" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="O118" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P118" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="I119" s="18"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="M119" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="N119" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O119" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P119" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="I120" s="18"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M120" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N120" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="O120" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P120" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="I121" s="18"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="M121" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N121" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="O121" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P121" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="I122" s="18"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="M122" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="N122" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="O122" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P122" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="I123" s="18"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M123" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="N123" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="O123" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="P123" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="I124" s="18"/>
+      <c r="J124" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="K124" s="37"/>
+      <c r="L124" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="M124" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="N124" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="O124" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P124" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="I125" s="18"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M125" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="N125" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="O125" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P125" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="I126" s="18"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M126" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="N126" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="O126" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P126" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="I127" s="18"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="M127" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="N127" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="O127" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P127" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="I128" s="18"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M128" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="N128" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="O128" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P128" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="I129" s="18"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M129" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="N129" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="O129" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P129" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="I130" s="18"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="M130" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="N130" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="O130" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P130" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="I131" s="18"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M131" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="N131" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="O131" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="P131" s="47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="I132" s="18"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="55"/>
+      <c r="L132" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="M132" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="N132" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="O132" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P132" s="59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="I133" s="18"/>
+    </row>
+    <row r="134">
+      <c r="I134" s="18"/>
+    </row>
+    <row r="135">
+      <c r="I135" s="18"/>
+    </row>
+    <row r="136">
+      <c r="I136" s="18"/>
+    </row>
+    <row r="137">
+      <c r="I137" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J96:K100"/>
+    <mergeCell ref="J109:K113"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="I81:I137"/>
+    <mergeCell ref="J81:K87"/>
+    <mergeCell ref="J88:K91"/>
+    <mergeCell ref="J92:K95"/>
+    <mergeCell ref="J101:K108"/>
+    <mergeCell ref="J124:K132"/>
+    <mergeCell ref="J114:K123"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>